--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.059019607754408</v>
+        <v>3.059019607754806</v>
       </c>
       <c r="C2">
-        <v>0.8414592979159181</v>
+        <v>0.8414592979158897</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1724187232770547</v>
+        <v>0.1724187232771826</v>
       </c>
       <c r="F2">
-        <v>6.702484146476621</v>
+        <v>6.702484146476678</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.83755796564877</v>
+        <v>2.837557965648728</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03857092572705589</v>
+        <v>0.03857092572704168</v>
       </c>
       <c r="L2">
-        <v>0.2690949775932587</v>
+        <v>0.2690949775932339</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.608792148462044</v>
+        <v>2.60879214846193</v>
       </c>
       <c r="C3">
-        <v>0.7155629409266737</v>
+        <v>0.7155629409260769</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1467632966362764</v>
+        <v>0.1467632966363936</v>
       </c>
       <c r="F3">
-        <v>5.765463002331586</v>
+        <v>5.7654630023317</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.457593405954256</v>
+        <v>2.457593405954412</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03082330020043855</v>
+        <v>0.03082330020048918</v>
       </c>
       <c r="L3">
-        <v>0.2238066751870633</v>
+        <v>0.2238066751870065</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.342278469942357</v>
+        <v>2.342278469941959</v>
       </c>
       <c r="C4">
-        <v>0.6408631676475807</v>
+        <v>0.6408631676468985</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1315545244474094</v>
+        <v>0.131554524447381</v>
       </c>
       <c r="F4">
-        <v>5.209165105780045</v>
+        <v>5.20916510578013</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0265030762291909</v>
+        <v>0.02650307622924952</v>
       </c>
       <c r="L4">
-        <v>0.1976912867342797</v>
+        <v>0.1976912867342548</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.235763942767903</v>
+        <v>2.235763942767676</v>
       </c>
       <c r="C5">
-        <v>0.6109617053063232</v>
+        <v>0.6109617053061811</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.125468855024522</v>
+        <v>0.125468855024458</v>
       </c>
       <c r="F5">
-        <v>4.98640168915037</v>
+        <v>4.986401689150398</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.142559424082378</v>
+        <v>2.142559424082464</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02483252031981387</v>
+        <v>0.02483252031971794</v>
       </c>
       <c r="L5">
-        <v>0.1874048927846914</v>
+        <v>0.1874048927846701</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.218192913413304</v>
+        <v>2.218192913413191</v>
       </c>
       <c r="C6">
-        <v>0.6060261226857051</v>
+        <v>0.6060261226847103</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1244644458762281</v>
+        <v>0.1244644458761961</v>
       </c>
       <c r="F6">
-        <v>4.949626902324781</v>
+        <v>4.949626902324809</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.127705306208782</v>
+        <v>2.127705306208796</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02456004143423485</v>
+        <v>0.0245600414342606</v>
       </c>
       <c r="L6">
-        <v>0.1857165118236708</v>
+        <v>0.1857165118237205</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.340833999445692</v>
+        <v>2.340833999445294</v>
       </c>
       <c r="C7">
-        <v>0.640457861949983</v>
+        <v>0.6404578619498125</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.131472027416109</v>
+        <v>0.1314720274161516</v>
       </c>
       <c r="F7">
         <v>5.206145955300769</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.231348119765585</v>
+        <v>2.231348119765599</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02648020607945156</v>
+        <v>0.02648020607944623</v>
       </c>
       <c r="L7">
-        <v>0.1975512039049967</v>
+        <v>0.1975512039049931</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.901457327975947</v>
+        <v>2.901457327975493</v>
       </c>
       <c r="C8">
-        <v>0.7974356099497584</v>
+        <v>0.7974356099491615</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1634437808026945</v>
+        <v>0.1634437808025311</v>
       </c>
       <c r="F8">
         <v>6.374890856076036</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.704573940710816</v>
+        <v>2.704573940710802</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03579576852768085</v>
+        <v>0.03579576852770749</v>
       </c>
       <c r="L8">
-        <v>0.2530827598484748</v>
+        <v>0.253082759848489</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.101821424593709</v>
+        <v>4.101821424593368</v>
       </c>
       <c r="C9">
-        <v>1.132219159878019</v>
+        <v>1.132219159877252</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2318143312801482</v>
+        <v>0.2318143312800558</v>
       </c>
       <c r="F9">
-        <v>8.864998289602511</v>
+        <v>8.864998289602539</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.719834320102791</v>
+        <v>3.719834320102734</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05865879846361111</v>
+        <v>0.05865879846355959</v>
       </c>
       <c r="L9">
-        <v>0.3793078795409883</v>
+        <v>0.379307879540999</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.084756782636589</v>
+        <v>5.084756782636134</v>
       </c>
       <c r="C10">
-        <v>1.405852865002146</v>
+        <v>1.405852865002089</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2879330859329912</v>
+        <v>0.2879330859330054</v>
       </c>
       <c r="F10">
-        <v>10.89968819927276</v>
+        <v>10.89968819927287</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.557814903318075</v>
+        <v>4.557814903318132</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.08035348990245694</v>
+        <v>0.08035348990240898</v>
       </c>
       <c r="L10">
-        <v>0.4897385710352893</v>
+        <v>0.4897385710352182</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.566202440640495</v>
+        <v>5.566202440641405</v>
       </c>
       <c r="C11">
-        <v>1.539868870788837</v>
+        <v>1.53986887078878</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3155078830046634</v>
+        <v>0.3155078830046705</v>
       </c>
       <c r="F11">
-        <v>11.89655279196222</v>
+        <v>11.89655279196216</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.971404363897619</v>
+        <v>4.971404363897648</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.09198162714518787</v>
+        <v>0.09198162714528735</v>
       </c>
       <c r="L11">
-        <v>0.5461312424286149</v>
+        <v>0.5461312424286078</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.754882755269421</v>
+        <v>5.754882755269534</v>
       </c>
       <c r="C12">
-        <v>1.592399980879748</v>
+        <v>1.592399980879065</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3263340919073912</v>
+        <v>0.326334091907384</v>
       </c>
       <c r="F12">
-        <v>12.28742301035271</v>
+        <v>12.28742301035248</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.134141631498608</v>
+        <v>5.134141631498551</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.09672290343889856</v>
+        <v>0.09672290343882928</v>
       </c>
       <c r="L12">
-        <v>0.568648636814693</v>
+        <v>0.5686486368146149</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.713936064165296</v>
+        <v>5.713936064165182</v>
       </c>
       <c r="C13">
-        <v>1.580999234153296</v>
+        <v>1.580999234154149</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3239836285966646</v>
+        <v>0.3239836285965794</v>
       </c>
       <c r="F13">
-        <v>12.20258601378163</v>
+        <v>12.20258601378168</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.098792435703558</v>
+        <v>5.098792435703587</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.0956850620918015</v>
+        <v>0.09568506209184946</v>
       </c>
       <c r="L13">
-        <v>0.5637419357654778</v>
+        <v>0.5637419357654423</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.581587824300868</v>
+        <v>5.58158782430047</v>
       </c>
       <c r="C14">
-        <v>1.544152098416816</v>
+        <v>1.54415209841693</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3163902396119127</v>
+        <v>0.3163902396119482</v>
       </c>
       <c r="F14">
-        <v>11.92842017652157</v>
+        <v>11.92842017652129</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.984660077854585</v>
+        <v>4.984660077854386</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.09236432400672001</v>
+        <v>0.09236432400674666</v>
       </c>
       <c r="L14">
-        <v>0.5479585273305005</v>
+        <v>0.5479585273305503</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.501400177106689</v>
+        <v>5.5014001771072</v>
       </c>
       <c r="C15">
-        <v>1.521828649529311</v>
+        <v>1.521828649531813</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3117922779627378</v>
+        <v>0.3117922779626809</v>
       </c>
       <c r="F15">
-        <v>11.76233824906194</v>
+        <v>11.76233824906183</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.915599345395179</v>
+        <v>4.915599345395236</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.09037733126046454</v>
+        <v>0.09037733126047343</v>
       </c>
       <c r="L15">
-        <v>0.5384520009456324</v>
+        <v>0.5384520009456182</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.054096357724745</v>
+        <v>5.054096357725427</v>
       </c>
       <c r="C16">
-        <v>1.397318840985918</v>
+        <v>1.397318840986259</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2861792452752638</v>
+        <v>0.2861792452751004</v>
       </c>
       <c r="F16">
-        <v>10.83622070642861</v>
+        <v>10.83622070642838</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.531552226779098</v>
+        <v>4.531552226779013</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.07963557133101062</v>
+        <v>0.07963557133099819</v>
       </c>
       <c r="L16">
-        <v>0.4861987431577006</v>
+        <v>0.4861987431576935</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.789367667740578</v>
+        <v>4.789367667739839</v>
       </c>
       <c r="C17">
-        <v>1.323634178774</v>
+        <v>1.323634178774228</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2710462360587016</v>
+        <v>0.2710462360587158</v>
       </c>
       <c r="F17">
-        <v>10.28827038365094</v>
+        <v>10.28827038365048</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.305150180016</v>
+        <v>4.305150180015659</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.07354820706376053</v>
+        <v>0.07354820706374099</v>
       </c>
       <c r="L17">
         <v>0.4558904014908904</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.640225070947452</v>
+        <v>4.640225070947736</v>
       </c>
       <c r="C18">
         <v>1.282120038683331</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2625280066952129</v>
+        <v>0.2625280066952911</v>
       </c>
       <c r="F18">
-        <v>9.979579140875728</v>
+        <v>9.979579140875785</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.177868856153623</v>
+        <v>4.17786885615368</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.07020604448195655</v>
+        <v>0.07020604448198675</v>
       </c>
       <c r="L18">
-        <v>0.4390165250842912</v>
+        <v>0.4390165250843552</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.590227231669303</v>
+        <v>4.590227231669132</v>
       </c>
       <c r="C19">
-        <v>1.268202455861513</v>
+        <v>1.268202455861797</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.259673497812102</v>
+        <v>0.2596734978121376</v>
       </c>
       <c r="F19">
-        <v>9.876093449437974</v>
+        <v>9.876093449438542</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.135241000890431</v>
+        <v>4.135241000890858</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.06909963879997605</v>
+        <v>0.06909963879987657</v>
       </c>
       <c r="L19">
-        <v>0.4333922326240938</v>
+        <v>0.4333922326240369</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.817216305530053</v>
+        <v>4.817216305530565</v>
       </c>
       <c r="C20">
-        <v>1.331385689049569</v>
+        <v>1.331385689050478</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2726373691481783</v>
+        <v>0.2726373691481498</v>
       </c>
       <c r="F20">
-        <v>10.34591084173451</v>
+        <v>10.34591084173425</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.32893773136297</v>
+        <v>4.328937731362856</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.0741792242038315</v>
+        <v>0.07417922420377465</v>
       </c>
       <c r="L20">
-        <v>0.4590572311068044</v>
+        <v>0.4590572311067476</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.620275195183012</v>
+        <v>5.620275195182558</v>
       </c>
       <c r="C21">
-        <v>1.554922701255578</v>
+        <v>1.554922701255748</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3186093089864883</v>
+        <v>0.3186093089864244</v>
       </c>
       <c r="F21">
-        <v>12.00855615072879</v>
+        <v>12.00855615072857</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.018003330053745</v>
+        <v>5.018003330053602</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.093329701373559</v>
+        <v>0.0933297013735821</v>
       </c>
       <c r="L21">
-        <v>0.5525602519065842</v>
+        <v>0.55256025190657</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.183271175121035</v>
+        <v>6.18327117512149</v>
       </c>
       <c r="C22">
         <v>1.711702281353041</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3509602036125443</v>
+        <v>0.3509602036124093</v>
       </c>
       <c r="F22">
         <v>13.17546646862502</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.505097529333938</v>
+        <v>5.505097529333852</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1078804251571892</v>
+        <v>0.1078804251572656</v>
       </c>
       <c r="L22">
-        <v>0.6206544435918389</v>
+        <v>0.6206544435919099</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.878695006156192</v>
+        <v>5.87869500615551</v>
       </c>
       <c r="C23">
-        <v>1.62687534509638</v>
+        <v>1.626875345097403</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3334447680737753</v>
+        <v>0.3334447680737256</v>
       </c>
       <c r="F23">
-        <v>12.54399210189166</v>
+        <v>12.54399210189149</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.241140727922243</v>
+        <v>5.241140727922186</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.09989127957991073</v>
+        <v>0.09989127957993915</v>
       </c>
       <c r="L23">
-        <v>0.583553113406623</v>
+        <v>0.5835531134066656</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.804616527237272</v>
+        <v>4.804616527236703</v>
       </c>
       <c r="C24">
-        <v>1.32787861852978</v>
+        <v>1.327878618529269</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.271917457541015</v>
+        <v>0.2719174575411074</v>
       </c>
       <c r="F24">
-        <v>10.31983208703471</v>
+        <v>10.31983208703454</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.318174511402134</v>
+        <v>4.31817451140202</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.07389345659875879</v>
+        <v>0.07389345659878721</v>
       </c>
       <c r="L24">
-        <v>0.4576238113671351</v>
+        <v>0.4576238113671991</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.76274955423537</v>
+        <v>3.762749554234915</v>
       </c>
       <c r="C25">
-        <v>1.037761892907611</v>
+        <v>1.037761892908151</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2124943818437757</v>
+        <v>0.2124943818439249</v>
       </c>
       <c r="F25">
-        <v>8.1626225454485</v>
+        <v>8.162622545448386</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.432385357103726</v>
+        <v>3.432385357103698</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.05179904989686435</v>
+        <v>0.05179904989689454</v>
       </c>
       <c r="L25">
-        <v>0.3426778390932022</v>
+        <v>0.342677839093259</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.059019607754806</v>
+        <v>3.059019607754408</v>
       </c>
       <c r="C2">
-        <v>0.8414592979158897</v>
+        <v>0.8414592979159181</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1724187232771826</v>
+        <v>0.1724187232770547</v>
       </c>
       <c r="F2">
-        <v>6.702484146476678</v>
+        <v>6.702484146476621</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.837557965648728</v>
+        <v>2.83755796564877</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03857092572704168</v>
+        <v>0.03857092572705589</v>
       </c>
       <c r="L2">
-        <v>0.2690949775932339</v>
+        <v>0.2690949775932587</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.60879214846193</v>
+        <v>2.608792148462044</v>
       </c>
       <c r="C3">
-        <v>0.7155629409260769</v>
+        <v>0.7155629409266737</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1467632966363936</v>
+        <v>0.1467632966362764</v>
       </c>
       <c r="F3">
-        <v>5.7654630023317</v>
+        <v>5.765463002331586</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.457593405954412</v>
+        <v>2.457593405954256</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03082330020048918</v>
+        <v>0.03082330020043855</v>
       </c>
       <c r="L3">
-        <v>0.2238066751870065</v>
+        <v>0.2238066751870633</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.342278469941959</v>
+        <v>2.342278469942357</v>
       </c>
       <c r="C4">
-        <v>0.6408631676468985</v>
+        <v>0.6408631676475807</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.131554524447381</v>
+        <v>0.1315545244474094</v>
       </c>
       <c r="F4">
-        <v>5.20916510578013</v>
+        <v>5.209165105780045</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02650307622924952</v>
+        <v>0.0265030762291909</v>
       </c>
       <c r="L4">
-        <v>0.1976912867342548</v>
+        <v>0.1976912867342797</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.235763942767676</v>
+        <v>2.235763942767903</v>
       </c>
       <c r="C5">
-        <v>0.6109617053061811</v>
+        <v>0.6109617053063232</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.125468855024458</v>
+        <v>0.125468855024522</v>
       </c>
       <c r="F5">
-        <v>4.986401689150398</v>
+        <v>4.98640168915037</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.142559424082464</v>
+        <v>2.142559424082378</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.02483252031971794</v>
+        <v>0.02483252031981387</v>
       </c>
       <c r="L5">
-        <v>0.1874048927846701</v>
+        <v>0.1874048927846914</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.218192913413191</v>
+        <v>2.218192913413304</v>
       </c>
       <c r="C6">
-        <v>0.6060261226847103</v>
+        <v>0.6060261226857051</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1244644458761961</v>
+        <v>0.1244644458762281</v>
       </c>
       <c r="F6">
-        <v>4.949626902324809</v>
+        <v>4.949626902324781</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.127705306208796</v>
+        <v>2.127705306208782</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0245600414342606</v>
+        <v>0.02456004143423485</v>
       </c>
       <c r="L6">
-        <v>0.1857165118237205</v>
+        <v>0.1857165118236708</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.340833999445294</v>
+        <v>2.340833999445692</v>
       </c>
       <c r="C7">
-        <v>0.6404578619498125</v>
+        <v>0.640457861949983</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1314720274161516</v>
+        <v>0.131472027416109</v>
       </c>
       <c r="F7">
         <v>5.206145955300769</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.231348119765599</v>
+        <v>2.231348119765585</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.02648020607944623</v>
+        <v>0.02648020607945156</v>
       </c>
       <c r="L7">
-        <v>0.1975512039049931</v>
+        <v>0.1975512039049967</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.901457327975493</v>
+        <v>2.901457327975947</v>
       </c>
       <c r="C8">
-        <v>0.7974356099491615</v>
+        <v>0.7974356099497584</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1634437808025311</v>
+        <v>0.1634437808026945</v>
       </c>
       <c r="F8">
         <v>6.374890856076036</v>
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.704573940710802</v>
+        <v>2.704573940710816</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03579576852770749</v>
+        <v>0.03579576852768085</v>
       </c>
       <c r="L8">
-        <v>0.253082759848489</v>
+        <v>0.2530827598484748</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.101821424593368</v>
+        <v>4.101821424593709</v>
       </c>
       <c r="C9">
-        <v>1.132219159877252</v>
+        <v>1.132219159878019</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2318143312800558</v>
+        <v>0.2318143312801482</v>
       </c>
       <c r="F9">
-        <v>8.864998289602539</v>
+        <v>8.864998289602511</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.719834320102734</v>
+        <v>3.719834320102791</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05865879846355959</v>
+        <v>0.05865879846361111</v>
       </c>
       <c r="L9">
-        <v>0.379307879540999</v>
+        <v>0.3793078795409883</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.084756782636134</v>
+        <v>5.084756782636589</v>
       </c>
       <c r="C10">
-        <v>1.405852865002089</v>
+        <v>1.405852865002146</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2879330859330054</v>
+        <v>0.2879330859329912</v>
       </c>
       <c r="F10">
-        <v>10.89968819927287</v>
+        <v>10.89968819927276</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.557814903318132</v>
+        <v>4.557814903318075</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.08035348990240898</v>
+        <v>0.08035348990245694</v>
       </c>
       <c r="L10">
-        <v>0.4897385710352182</v>
+        <v>0.4897385710352893</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.566202440641405</v>
+        <v>5.566202440640495</v>
       </c>
       <c r="C11">
-        <v>1.53986887078878</v>
+        <v>1.539868870788837</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3155078830046705</v>
+        <v>0.3155078830046634</v>
       </c>
       <c r="F11">
-        <v>11.89655279196216</v>
+        <v>11.89655279196222</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,16 +775,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.971404363897648</v>
+        <v>4.971404363897619</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.09198162714528735</v>
+        <v>0.09198162714518787</v>
       </c>
       <c r="L11">
-        <v>0.5461312424286078</v>
+        <v>0.5461312424286149</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.754882755269534</v>
+        <v>5.754882755269421</v>
       </c>
       <c r="C12">
-        <v>1.592399980879065</v>
+        <v>1.592399980879748</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.326334091907384</v>
+        <v>0.3263340919073912</v>
       </c>
       <c r="F12">
-        <v>12.28742301035248</v>
+        <v>12.28742301035271</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.134141631498551</v>
+        <v>5.134141631498608</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.09672290343882928</v>
+        <v>0.09672290343889856</v>
       </c>
       <c r="L12">
-        <v>0.5686486368146149</v>
+        <v>0.568648636814693</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.713936064165182</v>
+        <v>5.713936064165296</v>
       </c>
       <c r="C13">
-        <v>1.580999234154149</v>
+        <v>1.580999234153296</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3239836285965794</v>
+        <v>0.3239836285966646</v>
       </c>
       <c r="F13">
-        <v>12.20258601378168</v>
+        <v>12.20258601378163</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.098792435703587</v>
+        <v>5.098792435703558</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.09568506209184946</v>
+        <v>0.0956850620918015</v>
       </c>
       <c r="L13">
-        <v>0.5637419357654423</v>
+        <v>0.5637419357654778</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.58158782430047</v>
+        <v>5.581587824300868</v>
       </c>
       <c r="C14">
-        <v>1.54415209841693</v>
+        <v>1.544152098416816</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3163902396119482</v>
+        <v>0.3163902396119127</v>
       </c>
       <c r="F14">
-        <v>11.92842017652129</v>
+        <v>11.92842017652157</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.984660077854386</v>
+        <v>4.984660077854585</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.09236432400674666</v>
+        <v>0.09236432400672001</v>
       </c>
       <c r="L14">
-        <v>0.5479585273305503</v>
+        <v>0.5479585273305005</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.5014001771072</v>
+        <v>5.501400177106689</v>
       </c>
       <c r="C15">
-        <v>1.521828649531813</v>
+        <v>1.521828649529311</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3117922779626809</v>
+        <v>0.3117922779627378</v>
       </c>
       <c r="F15">
-        <v>11.76233824906183</v>
+        <v>11.76233824906194</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.915599345395236</v>
+        <v>4.915599345395179</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.09037733126047343</v>
+        <v>0.09037733126046454</v>
       </c>
       <c r="L15">
-        <v>0.5384520009456182</v>
+        <v>0.5384520009456324</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.054096357725427</v>
+        <v>5.054096357724745</v>
       </c>
       <c r="C16">
-        <v>1.397318840986259</v>
+        <v>1.397318840985918</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2861792452751004</v>
+        <v>0.2861792452752638</v>
       </c>
       <c r="F16">
-        <v>10.83622070642838</v>
+        <v>10.83622070642861</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.531552226779013</v>
+        <v>4.531552226779098</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.07963557133099819</v>
+        <v>0.07963557133101062</v>
       </c>
       <c r="L16">
-        <v>0.4861987431576935</v>
+        <v>0.4861987431577006</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.789367667739839</v>
+        <v>4.789367667740578</v>
       </c>
       <c r="C17">
-        <v>1.323634178774228</v>
+        <v>1.323634178774</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2710462360587158</v>
+        <v>0.2710462360587016</v>
       </c>
       <c r="F17">
-        <v>10.28827038365048</v>
+        <v>10.28827038365094</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.305150180015659</v>
+        <v>4.305150180016</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.07354820706374099</v>
+        <v>0.07354820706376053</v>
       </c>
       <c r="L17">
         <v>0.4558904014908904</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.640225070947736</v>
+        <v>4.640225070947452</v>
       </c>
       <c r="C18">
         <v>1.282120038683331</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2625280066952911</v>
+        <v>0.2625280066952129</v>
       </c>
       <c r="F18">
-        <v>9.979579140875785</v>
+        <v>9.979579140875728</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.17786885615368</v>
+        <v>4.177868856153623</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.07020604448198675</v>
+        <v>0.07020604448195655</v>
       </c>
       <c r="L18">
-        <v>0.4390165250843552</v>
+        <v>0.4390165250842912</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.590227231669132</v>
+        <v>4.590227231669303</v>
       </c>
       <c r="C19">
-        <v>1.268202455861797</v>
+        <v>1.268202455861513</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2596734978121376</v>
+        <v>0.259673497812102</v>
       </c>
       <c r="F19">
-        <v>9.876093449438542</v>
+        <v>9.876093449437974</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.135241000890858</v>
+        <v>4.135241000890431</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.06909963879987657</v>
+        <v>0.06909963879997605</v>
       </c>
       <c r="L19">
-        <v>0.4333922326240369</v>
+        <v>0.4333922326240938</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.817216305530565</v>
+        <v>4.817216305530053</v>
       </c>
       <c r="C20">
-        <v>1.331385689050478</v>
+        <v>1.331385689049569</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2726373691481498</v>
+        <v>0.2726373691481783</v>
       </c>
       <c r="F20">
-        <v>10.34591084173425</v>
+        <v>10.34591084173451</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.328937731362856</v>
+        <v>4.32893773136297</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.07417922420377465</v>
+        <v>0.0741792242038315</v>
       </c>
       <c r="L20">
-        <v>0.4590572311067476</v>
+        <v>0.4590572311068044</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.620275195182558</v>
+        <v>5.620275195183012</v>
       </c>
       <c r="C21">
-        <v>1.554922701255748</v>
+        <v>1.554922701255578</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3186093089864244</v>
+        <v>0.3186093089864883</v>
       </c>
       <c r="F21">
-        <v>12.00855615072857</v>
+        <v>12.00855615072879</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.018003330053602</v>
+        <v>5.018003330053745</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.0933297013735821</v>
+        <v>0.093329701373559</v>
       </c>
       <c r="L21">
-        <v>0.55256025190657</v>
+        <v>0.5525602519065842</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.18327117512149</v>
+        <v>6.183271175121035</v>
       </c>
       <c r="C22">
         <v>1.711702281353041</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3509602036124093</v>
+        <v>0.3509602036125443</v>
       </c>
       <c r="F22">
         <v>13.17546646862502</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.505097529333852</v>
+        <v>5.505097529333938</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1078804251572656</v>
+        <v>0.1078804251571892</v>
       </c>
       <c r="L22">
-        <v>0.6206544435919099</v>
+        <v>0.6206544435918389</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.87869500615551</v>
+        <v>5.878695006156192</v>
       </c>
       <c r="C23">
-        <v>1.626875345097403</v>
+        <v>1.62687534509638</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3334447680737256</v>
+        <v>0.3334447680737753</v>
       </c>
       <c r="F23">
-        <v>12.54399210189149</v>
+        <v>12.54399210189166</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.241140727922186</v>
+        <v>5.241140727922243</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.09989127957993915</v>
+        <v>0.09989127957991073</v>
       </c>
       <c r="L23">
-        <v>0.5835531134066656</v>
+        <v>0.583553113406623</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.804616527236703</v>
+        <v>4.804616527237272</v>
       </c>
       <c r="C24">
-        <v>1.327878618529269</v>
+        <v>1.32787861852978</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2719174575411074</v>
+        <v>0.271917457541015</v>
       </c>
       <c r="F24">
-        <v>10.31983208703454</v>
+        <v>10.31983208703471</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.31817451140202</v>
+        <v>4.318174511402134</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.07389345659878721</v>
+        <v>0.07389345659875879</v>
       </c>
       <c r="L24">
-        <v>0.4576238113671991</v>
+        <v>0.4576238113671351</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.762749554234915</v>
+        <v>3.76274955423537</v>
       </c>
       <c r="C25">
-        <v>1.037761892908151</v>
+        <v>1.037761892907611</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2124943818439249</v>
+        <v>0.2124943818437757</v>
       </c>
       <c r="F25">
-        <v>8.162622545448386</v>
+        <v>8.1626225454485</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.432385357103698</v>
+        <v>3.432385357103726</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.05179904989689454</v>
+        <v>0.05179904989686435</v>
       </c>
       <c r="L25">
-        <v>0.342677839093259</v>
+        <v>0.3426778390932022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.059019607754408</v>
+        <v>3.024335244200245</v>
       </c>
       <c r="C2">
-        <v>0.8414592979159181</v>
+        <v>0.8241143302493299</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1724187232770547</v>
+        <v>0.1738983872172142</v>
       </c>
       <c r="F2">
-        <v>6.702484146476621</v>
+        <v>6.693630373747908</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007801770377556628</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.83755796564877</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.844382860045883</v>
       </c>
       <c r="K2">
-        <v>0.03857092572705589</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2690949775932587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.03968456527799269</v>
+      </c>
+      <c r="M2">
+        <v>0.2643823147761744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.608792148462044</v>
+        <v>2.581909857621156</v>
       </c>
       <c r="C3">
-        <v>0.7155629409266737</v>
+        <v>0.7007774006275156</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1467632966362764</v>
+        <v>0.148231875106049</v>
       </c>
       <c r="F3">
-        <v>5.765463002331586</v>
+        <v>5.761143197761413</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007937333613353521</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.457593405954256</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.46641971572997</v>
       </c>
       <c r="K3">
-        <v>0.03082330020043855</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2238066751870633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.03185359394853293</v>
+      </c>
+      <c r="M3">
+        <v>0.2199377608041004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.342278469942357</v>
+        <v>2.320101306513209</v>
       </c>
       <c r="C4">
-        <v>0.6408631676475807</v>
+        <v>0.6276228927505656</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1315545244474094</v>
+        <v>0.1330073517551007</v>
       </c>
       <c r="F4">
-        <v>5.209165105780045</v>
+        <v>5.207411477766783</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008021501448907332</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.232568384085226</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.242498435383965</v>
       </c>
       <c r="K4">
-        <v>0.0265030762291909</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1976912867342797</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.02747615498806599</v>
+      </c>
+      <c r="M4">
+        <v>0.1943256973605472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.235763942767903</v>
+        <v>2.215491657260998</v>
       </c>
       <c r="C5">
-        <v>0.6109617053063232</v>
+        <v>0.598347383091749</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.125468855024522</v>
+        <v>0.126913284476565</v>
       </c>
       <c r="F5">
-        <v>4.98640168915037</v>
+        <v>4.985650988110962</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008056101511931239</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.142559424082378</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.152913926433342</v>
       </c>
       <c r="K5">
-        <v>0.02483252031981387</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1874048927846914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.02578097985818317</v>
+      </c>
+      <c r="M5">
+        <v>0.1842420605447188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.218192913413304</v>
+        <v>2.198236407043282</v>
       </c>
       <c r="C6">
-        <v>0.6060261226857051</v>
+        <v>0.5935155858055623</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1244644458762281</v>
+        <v>0.1259073681138432</v>
       </c>
       <c r="F6">
-        <v>4.949626902324781</v>
+        <v>4.949040452139229</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008061866778649733</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.127705306208782</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.138128913391171</v>
       </c>
       <c r="K6">
-        <v>0.02456004143423485</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1857165118236708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.02550433943909169</v>
+      </c>
+      <c r="M6">
+        <v>0.1825872394655512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.340833999445692</v>
+        <v>2.318682565850963</v>
       </c>
       <c r="C7">
-        <v>0.640457861949983</v>
+        <v>0.6272260407024532</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.131472027416109</v>
+        <v>0.1329247491674224</v>
       </c>
       <c r="F7">
-        <v>5.206145955300769</v>
+        <v>5.204406012530683</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008021966779181666</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.231348119765585</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.241283990766092</v>
       </c>
       <c r="K7">
-        <v>0.02648020607945156</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1975512039049967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.02745295785113555</v>
+      </c>
+      <c r="M7">
+        <v>0.1941883569247764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.901457327975947</v>
+        <v>2.869486820994211</v>
       </c>
       <c r="C8">
-        <v>0.7974356099497584</v>
+        <v>0.7809804693089291</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1634437808026945</v>
+        <v>0.1649216623762584</v>
       </c>
       <c r="F8">
-        <v>6.374890856076036</v>
+        <v>6.367653645281393</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007848362616891537</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.704573940710816</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.712119037883298</v>
       </c>
       <c r="K8">
-        <v>0.03579576852768085</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2530827598484748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.03688207420584533</v>
+      </c>
+      <c r="M8">
+        <v>0.2486649953474256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.101821424593709</v>
+        <v>4.049391848863706</v>
       </c>
       <c r="C9">
-        <v>1.132219159878019</v>
+        <v>1.109068934502488</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2318143312801482</v>
+        <v>0.2332539049514253</v>
       </c>
       <c r="F9">
-        <v>8.864998289602511</v>
+        <v>8.844526684317117</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007511671378173025</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.719834320102791</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.721325486232885</v>
       </c>
       <c r="K9">
-        <v>0.05865879846361111</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3793078795409883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.05990562711305181</v>
+      </c>
+      <c r="M9">
+        <v>0.3726222615433414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.084756782636589</v>
+        <v>5.015538659025651</v>
       </c>
       <c r="C10">
-        <v>1.405852865002146</v>
+        <v>1.377234800168253</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2879330859329912</v>
+        <v>0.2892565020619742</v>
       </c>
       <c r="F10">
-        <v>10.89968819927276</v>
+        <v>10.86651602354044</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007260151192648194</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.557814903318075</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.553268558065383</v>
       </c>
       <c r="K10">
-        <v>0.08035348990245694</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4897385710352893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.08164864272251471</v>
+      </c>
+      <c r="M10">
+        <v>0.4810987958312154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.566202440640495</v>
+        <v>5.488602887299635</v>
       </c>
       <c r="C11">
-        <v>1.539868870788837</v>
+        <v>1.50853136790181</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3155078830046634</v>
+        <v>0.3167460652618672</v>
       </c>
       <c r="F11">
-        <v>11.89655279196222</v>
+        <v>11.85640034697656</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007142826993073835</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.971404363897619</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.963482948499916</v>
       </c>
       <c r="K11">
-        <v>0.09198162714518787</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5461312424286149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.09327053861523815</v>
+      </c>
+      <c r="M11">
+        <v>0.5364778999041206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.754882755269421</v>
+        <v>5.673955257852015</v>
       </c>
       <c r="C12">
-        <v>1.592399980879748</v>
+        <v>1.559984752732134</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3263340919073912</v>
+        <v>0.3275334958952385</v>
       </c>
       <c r="F12">
-        <v>12.28742301035271</v>
+        <v>12.24437861078405</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007097750033324081</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.134141631498608</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.124813275319156</v>
       </c>
       <c r="K12">
-        <v>0.09672290343889856</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.568648636814693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.09800348161056682</v>
+      </c>
+      <c r="M12">
+        <v>0.5585851658417056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.713936064165296</v>
+        <v>5.633733123777006</v>
       </c>
       <c r="C13">
-        <v>1.580999234153296</v>
+        <v>1.548818544999563</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3239836285966646</v>
+        <v>0.3251917128237878</v>
       </c>
       <c r="F13">
-        <v>12.20258601378163</v>
+        <v>12.16017711236822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007107491489209414</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.098792435703558</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.08977363520853</v>
       </c>
       <c r="K13">
-        <v>0.0956850620918015</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5637419357654778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.0969677423342592</v>
+      </c>
+      <c r="M13">
+        <v>0.5537681406743005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.581587824300868</v>
+        <v>5.503717909178647</v>
       </c>
       <c r="C14">
-        <v>1.544152098416816</v>
+        <v>1.512726996631386</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3163902396119127</v>
+        <v>0.3176253757191247</v>
       </c>
       <c r="F14">
-        <v>11.92842017652157</v>
+        <v>11.88803535603751</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007139133070902006</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.984660077854585</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.976625781448178</v>
       </c>
       <c r="K14">
-        <v>0.09236432400672001</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5479585273305005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.09365268419164607</v>
+      </c>
+      <c r="M14">
+        <v>0.5382720328776571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.501400177106689</v>
+        <v>5.424937504574586</v>
       </c>
       <c r="C15">
-        <v>1.521828649529311</v>
+        <v>1.490859588549824</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3117922779627378</v>
+        <v>0.3130430672669675</v>
       </c>
       <c r="F15">
-        <v>11.76233824906194</v>
+        <v>11.72315799703097</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007158421887128643</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.915599345395179</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.908149853852365</v>
       </c>
       <c r="K15">
-        <v>0.09037733126046454</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5384520009456324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.09166831908187056</v>
+      </c>
+      <c r="M15">
+        <v>0.5289377443574494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.054096357724745</v>
+        <v>4.985407406480078</v>
       </c>
       <c r="C16">
-        <v>1.397318840985918</v>
+        <v>1.368872712724226</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2861792452752638</v>
+        <v>0.2875074412354763</v>
       </c>
       <c r="F16">
-        <v>10.83622070642861</v>
+        <v>10.80347478608826</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007267741932657689</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.531552226779098</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.527210892889144</v>
       </c>
       <c r="K16">
-        <v>0.07963557133101062</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4861987431577006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.08093042212765944</v>
+      </c>
+      <c r="M16">
+        <v>0.4776220643630325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.789367667740578</v>
+        <v>4.725229118891832</v>
       </c>
       <c r="C17">
-        <v>1.323634178774</v>
+        <v>1.296667688044124</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2710462360587016</v>
+        <v>0.2724125586199477</v>
       </c>
       <c r="F17">
-        <v>10.28827038365094</v>
+        <v>10.25911964588485</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007333918053790032</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.305150180016</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.302532207363384</v>
       </c>
       <c r="K17">
-        <v>0.07354820706376053</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4558904014908904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.07483711779089042</v>
+      </c>
+      <c r="M17">
+        <v>0.4478520864651045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.640225070947452</v>
+        <v>4.578637403209314</v>
       </c>
       <c r="C18">
-        <v>1.282120038683331</v>
+        <v>1.25598388079186</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2625280066952129</v>
+        <v>0.2639133566768805</v>
       </c>
       <c r="F18">
-        <v>9.979579140875728</v>
+        <v>9.95238904879136</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007371724343245641</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.177868856153623</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.176185995655175</v>
       </c>
       <c r="K18">
-        <v>0.07020604448195655</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4390165250842912</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.071489037007062</v>
+      </c>
+      <c r="M18">
+        <v>0.4312767967666105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.590227231669303</v>
+        <v>4.529492988658717</v>
       </c>
       <c r="C19">
-        <v>1.268202455861513</v>
+        <v>1.242344231190145</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.259673497812102</v>
+        <v>0.2610648349233742</v>
       </c>
       <c r="F19">
-        <v>9.876093449437974</v>
+        <v>9.849550577981461</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007384486824005906</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.135241000890431</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.133866027095138</v>
       </c>
       <c r="K19">
-        <v>0.06909963879997605</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4333922326240938</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.07038024153402311</v>
+      </c>
+      <c r="M19">
+        <v>0.425751899501293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.817216305530053</v>
+        <v>4.75260051126827</v>
       </c>
       <c r="C20">
-        <v>1.331385689049569</v>
+        <v>1.304263919715424</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2726373691481783</v>
+        <v>0.2739999441122052</v>
       </c>
       <c r="F20">
-        <v>10.34591084173451</v>
+        <v>10.31638892972478</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007326901493813578</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.32893773136297</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.326142337759961</v>
       </c>
       <c r="K20">
-        <v>0.0741792242038315</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4590572311068044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.07546903703066477</v>
+      </c>
+      <c r="M20">
+        <v>0.4509628009206068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.620275195183012</v>
+        <v>5.541724671755333</v>
       </c>
       <c r="C21">
-        <v>1.554922701255578</v>
+        <v>1.523277112871426</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3186093089864883</v>
+        <v>0.3198366950130236</v>
       </c>
       <c r="F21">
-        <v>12.00855615072879</v>
+        <v>11.96758434137905</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007129858982206888</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.018003330053745</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.009683756073855</v>
       </c>
       <c r="K21">
-        <v>0.093329701373559</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5525602519065842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.09461657562093073</v>
+      </c>
+      <c r="M21">
+        <v>0.5427901710064944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.183271175121035</v>
+        <v>6.094676504316681</v>
       </c>
       <c r="C22">
-        <v>1.711702281353041</v>
+        <v>1.676808770116281</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3509602036125443</v>
+        <v>0.3520596965484657</v>
       </c>
       <c r="F22">
-        <v>13.17546646862502</v>
+        <v>13.12549606921766</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006997132260064356</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.505097529333938</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.492382985627984</v>
       </c>
       <c r="K22">
-        <v>0.1078804251571892</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6206544435918389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1091288047943078</v>
+      </c>
+      <c r="M22">
+        <v>0.609628606371615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.878695006156192</v>
+        <v>5.795568286324624</v>
       </c>
       <c r="C23">
-        <v>1.62687534509638</v>
+        <v>1.593748582518344</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3334447680737753</v>
+        <v>0.3346170179470818</v>
       </c>
       <c r="F23">
-        <v>12.54399210189166</v>
+        <v>12.49899874444691</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007068429184011385</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.241140727922243</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.230861747375911</v>
       </c>
       <c r="K23">
-        <v>0.09989127957991073</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.583553113406623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1011644893788066</v>
+      </c>
+      <c r="M23">
+        <v>0.5732161280541561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.804616527237272</v>
+        <v>4.740216695482502</v>
       </c>
       <c r="C24">
-        <v>1.32787861852978</v>
+        <v>1.300827112970694</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.271917457541015</v>
+        <v>0.2732817356769175</v>
       </c>
       <c r="F24">
-        <v>10.31983208703471</v>
+        <v>10.29047830875601</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007330074406937115</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.318174511402134</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.315459500589839</v>
       </c>
       <c r="K24">
-        <v>0.07389345659875879</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4576238113671351</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.07518286925503936</v>
+      </c>
+      <c r="M24">
+        <v>0.4495547843034586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.76274955423537</v>
+        <v>3.716070433661173</v>
       </c>
       <c r="C25">
-        <v>1.037761892907611</v>
+        <v>1.016490243244561</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2124943818437757</v>
+        <v>0.2139565276154656</v>
       </c>
       <c r="F25">
-        <v>8.1626225454485</v>
+        <v>8.146116245878289</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007602932021254883</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.432385357103726</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3.435723101490709</v>
       </c>
       <c r="K25">
-        <v>0.05179904989686435</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3426778390932022</v>
+        <v>0.05301159725159899</v>
+      </c>
+      <c r="M25">
+        <v>0.336640858787753</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.024335244200245</v>
+        <v>4.091374553658</v>
       </c>
       <c r="C2">
-        <v>0.8241143302493299</v>
+        <v>0.5684048002693203</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1738983872172142</v>
+        <v>0.02363456384966423</v>
       </c>
       <c r="F2">
-        <v>6.693630373747908</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007801770377556628</v>
+        <v>0.0007962580827020158</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.844382860045883</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03968456527799269</v>
+        <v>0.3450955408622036</v>
       </c>
       <c r="M2">
-        <v>0.2643823147761744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.8404852915503866</v>
+      </c>
+      <c r="O2">
+        <v>1.428235316843342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.581909857621156</v>
+        <v>3.552027307547291</v>
       </c>
       <c r="C3">
-        <v>0.7007774006275156</v>
+        <v>0.4912917923875</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.148231875106049</v>
+        <v>0.02332688708306208</v>
       </c>
       <c r="F3">
-        <v>5.761143197761413</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007937333613353521</v>
+        <v>0.0008050725817844597</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.46641971572997</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03185359394853293</v>
+        <v>0.3025963136720549</v>
       </c>
       <c r="M3">
-        <v>0.2199377608041004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.8987150809999207</v>
+      </c>
+      <c r="O3">
+        <v>1.30842194258959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.320101306513209</v>
+        <v>3.22700663482243</v>
       </c>
       <c r="C4">
-        <v>0.6276228927505656</v>
+        <v>0.4445843553825171</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1330073517551007</v>
+        <v>0.02316942076920903</v>
       </c>
       <c r="F4">
-        <v>5.207411477766783</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008021501448907332</v>
+        <v>0.0008106187117618126</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.242498435383965</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02747615498806599</v>
+        <v>0.2770834379094538</v>
       </c>
       <c r="M4">
-        <v>0.1943256973605472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.9362889984952076</v>
+      </c>
+      <c r="O4">
+        <v>1.238863438146268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.215491657260998</v>
+        <v>3.095899301111331</v>
       </c>
       <c r="C5">
-        <v>0.598347383091749</v>
+        <v>0.4256828324882633</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.126913284476565</v>
+        <v>0.02311277863433059</v>
       </c>
       <c r="F5">
-        <v>4.985650988110962</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008056101511931239</v>
+        <v>0.0008129143887895713</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.152913926433342</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02578097985818317</v>
+        <v>0.2668157661563555</v>
       </c>
       <c r="M5">
-        <v>0.1842420605447188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.9520364385672657</v>
+      </c>
+      <c r="O5">
+        <v>1.21142732275483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.198236407043282</v>
+        <v>3.074204442750784</v>
       </c>
       <c r="C6">
-        <v>0.5935155858055623</v>
+        <v>0.4225514362740341</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1259073681138432</v>
+        <v>0.02310381729292477</v>
       </c>
       <c r="F6">
-        <v>4.949040452139229</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008061866778649733</v>
+        <v>0.0008132977856420394</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.138128913391171</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02550433943909169</v>
+        <v>0.2651181437301346</v>
       </c>
       <c r="M6">
-        <v>0.1825872394655512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.954677001392394</v>
+      </c>
+      <c r="O6">
+        <v>1.206923804792112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.318682565850963</v>
+        <v>3.225233300010586</v>
       </c>
       <c r="C7">
-        <v>0.6272260407024532</v>
+        <v>0.4443289440314686</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1329247491674224</v>
+        <v>0.02316862687923305</v>
       </c>
       <c r="F7">
-        <v>5.204406012530683</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008021966779181666</v>
+        <v>0.000810649525600969</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.241283990766092</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02745295785113555</v>
+        <v>0.2769444637879417</v>
       </c>
       <c r="M7">
-        <v>0.1941883569247764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.9364996372532204</v>
+      </c>
+      <c r="O7">
+        <v>1.238489865825471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.869486820994211</v>
+        <v>3.904005024103924</v>
       </c>
       <c r="C8">
-        <v>0.7809804693089291</v>
+        <v>0.5416650921704047</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1649216623762584</v>
+        <v>0.02352170989000957</v>
       </c>
       <c r="F8">
-        <v>6.367653645281393</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007848362616891537</v>
+        <v>0.0007992707019156301</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.712119037883298</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.03688207420584533</v>
+        <v>0.3303101573042539</v>
       </c>
       <c r="M8">
-        <v>0.2486649953474256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.8601711582433964</v>
+      </c>
+      <c r="O8">
+        <v>1.386030009005509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.049391848863706</v>
+        <v>5.294056016156787</v>
       </c>
       <c r="C9">
-        <v>1.109068934502488</v>
+        <v>0.7390874808079673</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2332539049514253</v>
+        <v>0.02448272506137705</v>
       </c>
       <c r="F9">
-        <v>8.844526684317117</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007511671378173025</v>
+        <v>0.0007779251635300135</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.721325486232885</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.05990562711305181</v>
+        <v>0.4404475089355202</v>
       </c>
       <c r="M9">
-        <v>0.3726222615433414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.7260428126163418</v>
+      </c>
+      <c r="O9">
+        <v>1.712100128850622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.015538659025651</v>
+        <v>6.367527882826778</v>
       </c>
       <c r="C10">
-        <v>1.377234800168253</v>
+        <v>0.8904609985328307</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2892565020619742</v>
+        <v>0.02538245592004529</v>
       </c>
       <c r="F10">
-        <v>10.86651602354044</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007260151192648194</v>
+        <v>0.0007626837594670323</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.553268558065383</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08164864272251471</v>
+        <v>0.5260858110105175</v>
       </c>
       <c r="M10">
-        <v>0.4810987958312154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.6387232319447236</v>
+      </c>
+      <c r="O10">
+        <v>1.981885956831348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.488602887299635</v>
+        <v>6.87147279931412</v>
       </c>
       <c r="C11">
-        <v>1.50853136790181</v>
+        <v>0.9613167642714018</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3167460652618672</v>
+        <v>0.02584157395718378</v>
       </c>
       <c r="F11">
-        <v>11.85640034697656</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007142826993073835</v>
+        <v>0.0007558070566826172</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.963482948499916</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09327053861523815</v>
+        <v>0.566429181751289</v>
       </c>
       <c r="M11">
-        <v>0.5364778999041206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.6018970245288173</v>
+      </c>
+      <c r="O11">
+        <v>2.113235959265268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.673955257852015</v>
+        <v>7.064965503151313</v>
       </c>
       <c r="C12">
-        <v>1.559984752732134</v>
+        <v>0.9884957871022664</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3275334958952385</v>
+        <v>0.02602334655978211</v>
       </c>
       <c r="F12">
-        <v>12.24437861078405</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007097750033324081</v>
+        <v>0.000753207414300997</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.124813275319156</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09800348161056682</v>
+        <v>0.5819404858957711</v>
       </c>
       <c r="M12">
-        <v>0.5585851658417056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.5884140698041662</v>
+      </c>
+      <c r="O12">
+        <v>2.164416585159614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.633733123777006</v>
+        <v>7.023167843870795</v>
       </c>
       <c r="C13">
-        <v>1.548818544999563</v>
+        <v>0.9826257781672894</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3251917128237878</v>
+        <v>0.02598383351458011</v>
       </c>
       <c r="F13">
-        <v>12.16017711236822</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007107491489209414</v>
+        <v>0.0007537671628138737</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.08977363520853</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.0969677423342592</v>
+        <v>0.5785888261925436</v>
       </c>
       <c r="M13">
-        <v>0.5537681406743005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5912964971732961</v>
+      </c>
+      <c r="O13">
+        <v>2.153326293318614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.503717909178647</v>
+        <v>6.887335666251374</v>
       </c>
       <c r="C14">
-        <v>1.512726996631386</v>
+        <v>0.9635454543390551</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3176253757191247</v>
+        <v>0.02585636521297019</v>
       </c>
       <c r="F14">
-        <v>11.88803535603751</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007139133070902006</v>
+        <v>0.0007555931174101696</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.976625781448178</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09365268419164607</v>
+        <v>0.5677003959032447</v>
       </c>
       <c r="M14">
-        <v>0.5382720328776571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.6007782201901222</v>
+      </c>
+      <c r="O14">
+        <v>2.117416475573691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.424937504574586</v>
+        <v>6.804494233067885</v>
       </c>
       <c r="C15">
-        <v>1.490859588549824</v>
+        <v>0.9519054143975723</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3130430672669675</v>
+        <v>0.02577934192574283</v>
       </c>
       <c r="F15">
-        <v>11.72315799703097</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007158421887128643</v>
+        <v>0.0007567120223094235</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.908149853852365</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09166831908187056</v>
+        <v>0.5610625301368373</v>
       </c>
       <c r="M15">
-        <v>0.5289377443574494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.6066477387565428</v>
+      </c>
+      <c r="O15">
+        <v>2.09561484975562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.985407406480078</v>
+        <v>6.334942190735262</v>
       </c>
       <c r="C16">
-        <v>1.368872712724226</v>
+        <v>0.8858755275996089</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2875074412354763</v>
+        <v>0.02535351588370816</v>
       </c>
       <c r="F16">
-        <v>10.80347478608826</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007267741932657689</v>
+        <v>0.0007631340014540767</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.527210892889144</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.08093042212765944</v>
+        <v>0.5234800339078305</v>
       </c>
       <c r="M16">
-        <v>0.4776220643630325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.6411919549114629</v>
+      </c>
+      <c r="O16">
+        <v>1.973491982560887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.725229118891832</v>
+        <v>6.051163366173455</v>
       </c>
       <c r="C17">
-        <v>1.296667688044124</v>
+        <v>0.8459196474333055</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2724125586199477</v>
+        <v>0.02510554916879393</v>
       </c>
       <c r="F17">
-        <v>10.25911964588485</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007333918053790032</v>
+        <v>0.0007670857006435431</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.302532207363384</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07483711779089042</v>
+        <v>0.5008026636918288</v>
       </c>
       <c r="M17">
-        <v>0.4478520864651045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.6631560060549049</v>
+      </c>
+      <c r="O17">
+        <v>1.900916319536151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.578637403209314</v>
+        <v>5.889383221865614</v>
       </c>
       <c r="C18">
-        <v>1.25598388079186</v>
+        <v>0.8231217574677885</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2639133566768805</v>
+        <v>0.02496756469412631</v>
       </c>
       <c r="F18">
-        <v>9.95238904879136</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007371724343245641</v>
+        <v>0.0007693642016424889</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.176185995655175</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.071489037007062</v>
+        <v>0.4878873503632803</v>
       </c>
       <c r="M18">
-        <v>0.4312767967666105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.6760586079436095</v>
+      </c>
+      <c r="O18">
+        <v>1.859970720957065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.529492988658717</v>
+        <v>5.834843237521568</v>
       </c>
       <c r="C19">
-        <v>1.242344231190145</v>
+        <v>0.8154326300213484</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2610648349233742</v>
+        <v>0.02492162112912233</v>
       </c>
       <c r="F19">
-        <v>9.849550577981461</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.0007384486824005906</v>
+        <v>0.0007701367281710138</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.133866027095138</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.07038024153402311</v>
+        <v>0.4835354677867372</v>
       </c>
       <c r="M19">
-        <v>0.425751899501293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.680472196841265</v>
+      </c>
+      <c r="O19">
+        <v>1.846238639074016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.75260051126827</v>
+        <v>6.081220062734985</v>
       </c>
       <c r="C20">
-        <v>1.304263919715424</v>
+        <v>0.8501535994949165</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2739999441122052</v>
+        <v>0.02513146037825464</v>
       </c>
       <c r="F20">
-        <v>10.31638892972478</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007326901493813578</v>
+        <v>0.0007666644826414522</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.326142337759961</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07546903703066477</v>
+        <v>0.5032032128803223</v>
       </c>
       <c r="M20">
-        <v>0.4509628009206068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.6607896961182647</v>
+      </c>
+      <c r="O20">
+        <v>1.908558167645381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.541724671755333</v>
+        <v>6.927157081777068</v>
       </c>
       <c r="C21">
-        <v>1.523277112871426</v>
+        <v>0.9691398479667157</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3198366950130236</v>
+        <v>0.02589358445092138</v>
       </c>
       <c r="F21">
-        <v>11.96758434137905</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007129858982206888</v>
+        <v>0.0007550567028103972</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.009683756073855</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09461657562093073</v>
+        <v>0.5708919344301648</v>
       </c>
       <c r="M21">
-        <v>0.5427901710064944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.5979802603468727</v>
+      </c>
+      <c r="O21">
+        <v>2.127923191235794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.094676504316681</v>
+        <v>7.495767183399778</v>
       </c>
       <c r="C22">
-        <v>1.676808770116281</v>
+        <v>1.048964867835338</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3520596965484657</v>
+        <v>0.0264382354941759</v>
       </c>
       <c r="F22">
-        <v>13.12549606921766</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0006997132260064356</v>
+        <v>0.0007474939413533166</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.492382985627984</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1091288047943078</v>
+        <v>0.616515201895723</v>
       </c>
       <c r="M22">
-        <v>0.609628606371615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.5596520601233692</v>
+      </c>
+      <c r="O22">
+        <v>2.279807757066663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.795568286324624</v>
+        <v>7.190695562766166</v>
       </c>
       <c r="C23">
-        <v>1.593748582518344</v>
+        <v>1.006149647703438</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3346170179470818</v>
+        <v>0.02614300896677513</v>
       </c>
       <c r="F23">
-        <v>12.49899874444691</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007068429184011385</v>
+        <v>0.0007515295518570501</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.230861747375911</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1011644893788066</v>
+        <v>0.5920256211555852</v>
       </c>
       <c r="M23">
-        <v>0.5732161280541561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.5798424835466847</v>
+      </c>
+      <c r="O23">
+        <v>2.197890163264702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.740216695482502</v>
+        <v>6.067627199421622</v>
       </c>
       <c r="C24">
-        <v>1.300827112970694</v>
+        <v>0.8482388944959496</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2732817356769175</v>
+        <v>0.02511973172585336</v>
       </c>
       <c r="F24">
-        <v>10.29047830875601</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>0.0007330074406937115</v>
+        <v>0.0007668548943580367</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.315459500589839</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07518286925503936</v>
+        <v>0.5021175465028023</v>
       </c>
       <c r="M24">
-        <v>0.4495547843034586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.661858651112766</v>
+      </c>
+      <c r="O24">
+        <v>1.905100876155331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.716070433661173</v>
+        <v>4.910140115025058</v>
       </c>
       <c r="C25">
-        <v>1.016490243244561</v>
+        <v>0.6847556637840171</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2139565276154656</v>
+        <v>0.02419110916440559</v>
       </c>
       <c r="F25">
-        <v>8.146116245878289</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007602932021254883</v>
+        <v>0.00078361036995287</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.435723101490709</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.05301159725159899</v>
+        <v>0.4099330827346961</v>
       </c>
       <c r="M25">
-        <v>0.336640858787753</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.7604967757226717</v>
+      </c>
+      <c r="O25">
+        <v>1.619207319893519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.091374553658</v>
+        <v>4.850495773713931</v>
       </c>
       <c r="C2">
-        <v>0.5684048002693203</v>
+        <v>2.164387775067553</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02363456384966423</v>
+        <v>1.511065517768003</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007962580827020158</v>
+        <v>0.0007385033379706529</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.038631860554318</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3450955408622036</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8404852915503866</v>
+        <v>0.5324331298695242</v>
       </c>
       <c r="O2">
-        <v>1.428235316843342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.552027307547291</v>
+        <v>4.148732820617681</v>
       </c>
       <c r="C3">
-        <v>0.4912917923875</v>
+        <v>1.84380035876967</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02332688708306208</v>
+        <v>1.280373292987662</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008050725817844597</v>
+        <v>0.0007506498255288988</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.9187968439979386</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3025963136720549</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8987150809999207</v>
+        <v>0.5746690472754494</v>
       </c>
       <c r="O3">
-        <v>1.30842194258959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.22700663482243</v>
+        <v>3.729412055515468</v>
       </c>
       <c r="C4">
-        <v>0.4445843553825171</v>
+        <v>1.653266581792366</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.02316942076920903</v>
+        <v>1.144338045941609</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008106187117618126</v>
+        <v>0.0007581886540522779</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.8499756024276692</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2770834379094538</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9362889984952076</v>
+        <v>0.6028298733255966</v>
       </c>
       <c r="O4">
-        <v>1.238863438146268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.095899301111331</v>
+        <v>3.560937093675477</v>
       </c>
       <c r="C5">
-        <v>0.4256828324882633</v>
+        <v>1.576930200474806</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02311277863433059</v>
+        <v>1.090055937424708</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008129143887895713</v>
+        <v>0.0007612870256812999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.822958710251541</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2668157661563555</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9520364385672657</v>
+        <v>0.6148136527574266</v>
       </c>
       <c r="O5">
-        <v>1.21142732275483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.074204442750784</v>
+        <v>3.533093542386609</v>
       </c>
       <c r="C6">
-        <v>0.4225514362740341</v>
+        <v>1.56432619449464</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02310381729292477</v>
+        <v>1.081105329192283</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008132977856420394</v>
+        <v>0.0007618032498511709</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8185302120127957</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2651181437301346</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.954677001392394</v>
+        <v>0.6168328468230158</v>
       </c>
       <c r="O6">
-        <v>1.206923804792112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.225233300010586</v>
+        <v>3.727130836587378</v>
       </c>
       <c r="C7">
-        <v>0.4443289440314686</v>
+        <v>1.652232126870331</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.02316862687923305</v>
+        <v>1.143601619334405</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.000810649525600969</v>
+        <v>0.0007582303262673762</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.8496072845843159</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2769444637879417</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9364996372532204</v>
+        <v>0.6029894973997258</v>
       </c>
       <c r="O7">
-        <v>1.238489865825471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.904005024103924</v>
+        <v>4.605798813441368</v>
       </c>
       <c r="C8">
-        <v>0.5416650921704047</v>
+        <v>2.052358666069267</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02352170989000957</v>
+        <v>1.430189499406382</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007992707019156301</v>
+        <v>0.0007426785098642447</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.9962160973630034</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3303101573042539</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8601711582433964</v>
+        <v>0.5464997939210932</v>
       </c>
       <c r="O8">
-        <v>1.386030009005509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.294056016156787</v>
+        <v>6.448260477351198</v>
       </c>
       <c r="C9">
-        <v>0.7390874808079673</v>
+        <v>2.902343362902457</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02448272506137705</v>
+        <v>2.051121901323938</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007779251635300135</v>
+        <v>0.0007124997655533088</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.330628956569385</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4404475089355202</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7260428126163418</v>
+        <v>0.4562441765568224</v>
       </c>
       <c r="O9">
-        <v>1.712100128850622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.367527882826778</v>
+        <v>7.923442516277589</v>
       </c>
       <c r="C10">
-        <v>0.8904609985328307</v>
+        <v>3.593805862697991</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.02538245592004529</v>
+        <v>2.569549740570693</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0.0007626837594670323</v>
+        <v>0.0006899497183978043</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.62106646460694</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5260858110105175</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6387232319447236</v>
+        <v>0.4074597520707144</v>
       </c>
       <c r="O10">
-        <v>1.981885956831348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.87147279931412</v>
+        <v>8.636025801255187</v>
       </c>
       <c r="C11">
-        <v>0.9613167642714018</v>
+        <v>3.931407576529978</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02584157395718378</v>
+        <v>2.827450752700145</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007558070566826172</v>
+        <v>0.0006794307872141655</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.767914691248791</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.566429181751289</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6018970245288173</v>
+        <v>0.3906326397519209</v>
       </c>
       <c r="O11">
-        <v>2.113235959265268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.064965503151313</v>
+        <v>8.913575523296231</v>
       </c>
       <c r="C12">
-        <v>0.9884957871022664</v>
+        <v>4.063552821650433</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.02602334655978211</v>
+        <v>2.929312947931706</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000753207414300997</v>
+        <v>0.0006753892993979925</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.826218778084453</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5819404858957711</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5884140698041662</v>
+        <v>0.3852132986226664</v>
       </c>
       <c r="O12">
-        <v>2.164416585159614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.023167843870795</v>
+        <v>8.853423691187345</v>
       </c>
       <c r="C13">
-        <v>0.9826257781672894</v>
+        <v>4.034882427478806</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.02598383351458011</v>
+        <v>2.907167949990523</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469238428</v>
       </c>
       <c r="G13">
-        <v>0.0007537671628138737</v>
+        <v>0.00067626269640954</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.813530873627968</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5785888261925436</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5912964971732961</v>
+        <v>0.3863345744321052</v>
       </c>
       <c r="O13">
-        <v>2.153326293318614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.887335666251374</v>
+        <v>8.658693556461571</v>
       </c>
       <c r="C14">
-        <v>0.9635454543390551</v>
+        <v>3.942186220690587</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02585636521297019</v>
+        <v>2.835739645827616</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>2.457142640142237</v>
       </c>
       <c r="G14">
-        <v>0.0007555931174101696</v>
+        <v>0.000679099600261172</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.772653416817917</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5677003959032447</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6007782201901222</v>
+        <v>0.3901664526771711</v>
       </c>
       <c r="O14">
-        <v>2.117416475573691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.804494233067885</v>
+        <v>8.54048057292016</v>
       </c>
       <c r="C15">
-        <v>0.9519054143975723</v>
+        <v>3.886002115842246</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02577934192574283</v>
+        <v>2.792571395959158</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007567120223094235</v>
+        <v>0.0006808289809933402</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.747986075545342</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5610625301368373</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6066477387565428</v>
+        <v>0.3926439938731292</v>
       </c>
       <c r="O15">
-        <v>2.09561484975562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.334942190735262</v>
+        <v>7.877846097202507</v>
       </c>
       <c r="C16">
-        <v>0.8858755275996089</v>
+        <v>3.572284387971536</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02535351588370816</v>
+        <v>2.553219493799489</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007631340014540767</v>
+        <v>0.0006906302791841292</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.61181150376818</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5234800339078305</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6411919549114629</v>
+        <v>0.4086816883867286</v>
       </c>
       <c r="O16">
-        <v>1.973491982560887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.051163366173455</v>
+        <v>7.483059053795785</v>
       </c>
       <c r="C17">
-        <v>0.8459196474333055</v>
+        <v>3.386346648154358</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02510554916879393</v>
+        <v>2.41266614444433</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007670857006435431</v>
+        <v>0.0006965634052110593</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.532405030616644</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5008026636918288</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6631560060549049</v>
+        <v>0.4200073678782772</v>
       </c>
       <c r="O17">
-        <v>1.900916319536151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.889383221865614</v>
+        <v>7.259766946989942</v>
       </c>
       <c r="C18">
-        <v>0.8231217574677885</v>
+        <v>3.281496583550734</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02496756469412631</v>
+        <v>2.333823041071668</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007693642016424889</v>
+        <v>0.0006999529705815266</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.488075913303192</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4878873503632803</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6760586079436095</v>
+        <v>0.4270131842674729</v>
       </c>
       <c r="O18">
-        <v>1.859970720957065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.834843237521568</v>
+        <v>7.184768103350734</v>
       </c>
       <c r="C19">
-        <v>0.8154326300213484</v>
+        <v>3.246330763140179</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02492162112912233</v>
+        <v>2.3074455124043</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007701367281710138</v>
+        <v>0.0007010971999249039</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.473282609473898</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4835354677867372</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.680472196841265</v>
+        <v>0.4294649773255657</v>
       </c>
       <c r="O19">
-        <v>1.846238639074016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.081220062734985</v>
+        <v>7.524682713603568</v>
       </c>
       <c r="C20">
-        <v>0.8501535994949165</v>
+        <v>3.405916851919926</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02513146037825464</v>
+        <v>2.427414979618064</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007666644826414522</v>
+        <v>0.0006959343256001116</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.540715299695975</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5032032128803223</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6607896961182647</v>
+        <v>0.4187497088366499</v>
       </c>
       <c r="O20">
-        <v>1.908558167645381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.927157081777068</v>
+        <v>8.715664696595127</v>
       </c>
       <c r="C21">
-        <v>0.9691398479667157</v>
+        <v>3.969287115941484</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.02589358445092138</v>
+        <v>2.856595866873249</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007550567028103972</v>
+        <v>0.0006782681103092436</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.784581443400597</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5708919344301648</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5979802603468727</v>
+        <v>0.3890133537583296</v>
       </c>
       <c r="O21">
-        <v>2.127923191235794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.495767183399778</v>
+        <v>9.540228896083477</v>
       </c>
       <c r="C22">
-        <v>1.048964867835338</v>
+        <v>4.363278392933012</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0264382354941759</v>
+        <v>3.16235007404525</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007474939413533166</v>
+        <v>0.0006663679856207963</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.960090840611954</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.616515201895723</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5596520601233692</v>
+        <v>0.3752622805030938</v>
       </c>
       <c r="O22">
-        <v>2.279807757066663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.190695562766166</v>
+        <v>9.095187739192966</v>
       </c>
       <c r="C23">
-        <v>1.006149647703438</v>
+        <v>4.150220963932043</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.02614300896677513</v>
+        <v>2.996408582313265</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0007515295518570501</v>
+        <v>0.0006727604467219245</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.864699958304286</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5920256211555852</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5798424835466847</v>
+        <v>0.3820054715268029</v>
       </c>
       <c r="O23">
-        <v>2.197890163264702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.067627199421622</v>
+        <v>7.505853329885326</v>
       </c>
       <c r="C24">
-        <v>0.8482388944959496</v>
+        <v>3.397062853668388</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02511973172585336</v>
+        <v>2.420740989519203</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0.0007668548943580367</v>
+        <v>0.0006962187979195592</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.536954148094253</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5021175465028023</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.661858651112766</v>
+        <v>0.4193167689926725</v>
       </c>
       <c r="O24">
-        <v>1.905100876155331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.910140115025058</v>
+        <v>5.932663967899884</v>
       </c>
       <c r="C25">
-        <v>0.6847556637840171</v>
+        <v>2.662976189181506</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02419110916440559</v>
+        <v>1.874517421953243</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.00078361036995287</v>
+        <v>0.0007206810934712416</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.233688860821758</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4099330827346961</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7604967757226717</v>
+        <v>0.4780141611730144</v>
       </c>
       <c r="O25">
-        <v>1.619207319893519</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.850495773713931</v>
+        <v>1.551991501684256</v>
       </c>
       <c r="C2">
-        <v>2.164387775067553</v>
+        <v>0.6356254217462265</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.511065517768003</v>
+        <v>0.4189517054670944</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007385033379706529</v>
+        <v>0.002405939069815402</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.038631860554318</v>
+        <v>0.7585760744539272</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5324331298695242</v>
+        <v>1.02950034710998</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.148732820617681</v>
+        <v>1.37776271018447</v>
       </c>
       <c r="C3">
-        <v>1.84380035876967</v>
+        <v>0.5565799236435964</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.280373292987662</v>
+        <v>0.3649226721706498</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007506498255288988</v>
+        <v>0.002412601349006005</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9187968439979386</v>
+        <v>0.7375074338506096</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5746690472754494</v>
+        <v>1.044842132735837</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.729412055515468</v>
+        <v>1.271467160817167</v>
       </c>
       <c r="C4">
-        <v>1.653266581792366</v>
+        <v>0.50828578767198</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.144338045941609</v>
+        <v>0.3319174917557319</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007581886540522779</v>
+        <v>0.002416892817716384</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8499756024276692</v>
+        <v>0.7252513311404556</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6028298733255966</v>
+        <v>1.054810370801782</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.560937093675477</v>
+        <v>1.228315569744439</v>
       </c>
       <c r="C5">
-        <v>1.576930200474806</v>
+        <v>0.4886617989130286</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.090055937424708</v>
+        <v>0.3185061684469304</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007612870256812999</v>
+        <v>0.002418692344663421</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.822958710251541</v>
+        <v>0.7204251029660398</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6148136527574266</v>
+        <v>1.05900933531106</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.533093542386609</v>
+        <v>1.221160035919183</v>
       </c>
       <c r="C6">
-        <v>1.56432619449464</v>
+        <v>0.4854065297942043</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.081105329192283</v>
+        <v>0.316281444221346</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007618032498511709</v>
+        <v>0.002418994224562265</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8185302120127957</v>
+        <v>0.719633791474493</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168328468230158</v>
+        <v>1.059714803632211</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.727130836587378</v>
+        <v>1.270884545222145</v>
       </c>
       <c r="C7">
-        <v>1.652232126870331</v>
+        <v>0.5080209092781729</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.143601619334405</v>
+        <v>0.3317364709654385</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938368969</v>
       </c>
       <c r="G7">
-        <v>0.0007582303262673762</v>
+        <v>0.002416916881149708</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8496072845843159</v>
+        <v>0.7251855654249155</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6029894973997258</v>
+        <v>1.054866446874875</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.605798813441368</v>
+        <v>1.49177182103989</v>
       </c>
       <c r="C8">
-        <v>2.052358666069267</v>
+        <v>0.6083181766624648</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.430189499406382</v>
+        <v>0.4002850610186499</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813905</v>
       </c>
       <c r="G8">
-        <v>0.0007426785098642447</v>
+        <v>0.002408194683528328</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9962160973630034</v>
+        <v>0.7511687474827511</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5464997939210932</v>
+        <v>1.034675754878535</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.448260477351198</v>
+        <v>1.930668248630298</v>
       </c>
       <c r="C9">
-        <v>2.902343362902457</v>
+        <v>0.8071035520439409</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.051121901323938</v>
+        <v>0.5362332550958797</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755042025</v>
       </c>
       <c r="G9">
-        <v>0.0007124997655533088</v>
+        <v>0.002392673408746092</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.330628956569385</v>
+        <v>0.8076488590455853</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4562441765568224</v>
+        <v>0.9994797420445778</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.923442516277589</v>
+        <v>2.25711722778982</v>
       </c>
       <c r="C10">
-        <v>3.593805862697991</v>
+        <v>0.9547238745029176</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.569549740570693</v>
+        <v>0.6373123177370275</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0006899497183978043</v>
+        <v>0.002382220330240365</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.62106646460694</v>
+        <v>0.8527023129189644</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4074597520707144</v>
+        <v>0.9763672942018147</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.636025801255187</v>
+        <v>2.406605810174312</v>
       </c>
       <c r="C11">
-        <v>3.931407576529978</v>
+        <v>1.022286925098285</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.827450752700145</v>
+        <v>0.68361605766016</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0006794307872141655</v>
+        <v>0.002377668169104021</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.767914691248791</v>
+        <v>0.8740126251813223</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3906326397519209</v>
+        <v>0.966463499868297</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.913575523296231</v>
+        <v>2.463363635692303</v>
       </c>
       <c r="C12">
-        <v>4.063552821650433</v>
+        <v>1.047935406917645</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.929312947931706</v>
+        <v>0.7012013049098442</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0006753892993979925</v>
+        <v>0.002375973328281821</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.826218778084453</v>
+        <v>0.8822029268833944</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3852132986226664</v>
+        <v>0.9628021839106822</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.853423691187345</v>
+        <v>2.451133031878612</v>
       </c>
       <c r="C13">
-        <v>4.034882427478806</v>
+        <v>1.042408629878139</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.907167949990523</v>
+        <v>0.6974116622608335</v>
       </c>
       <c r="F13">
-        <v>2.504295469238428</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.00067626269640954</v>
+        <v>0.002376337057931198</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.813530873627968</v>
+        <v>0.8804335838799204</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3863345744321052</v>
+        <v>0.9635867329948624</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.658693556461571</v>
+        <v>2.411272262603973</v>
       </c>
       <c r="C14">
-        <v>3.942186220690587</v>
+        <v>1.024395733631081</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.835739645827616</v>
+        <v>0.6850617567150294</v>
       </c>
       <c r="F14">
-        <v>2.457142640142237</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.000679099600261172</v>
+        <v>0.002377528154304424</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.772653416817917</v>
+        <v>0.8746840110158161</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3901664526771711</v>
+        <v>0.9661604892784084</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.54048057292016</v>
+        <v>2.386876134457168</v>
       </c>
       <c r="C15">
-        <v>3.886002115842246</v>
+        <v>1.013370773093243</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.792571395959158</v>
+        <v>0.6775038687183752</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0006808289809933402</v>
+        <v>0.002378261500348605</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.747986075545342</v>
+        <v>0.871178030222552</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3926439938731292</v>
+        <v>0.9677486233058801</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.877846097202507</v>
+        <v>2.24736830803397</v>
       </c>
       <c r="C16">
-        <v>3.572284387971536</v>
+        <v>0.9503171321304649</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.553219493799489</v>
+        <v>0.6342931427580538</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0006906302791841292</v>
+        <v>0.002382521890145395</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.61181150376818</v>
+        <v>0.8513263208980533</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4086816883867286</v>
+        <v>0.9770269186641514</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.483059053795785</v>
+        <v>2.162042799645235</v>
       </c>
       <c r="C17">
-        <v>3.386346648154358</v>
+        <v>0.9117441722768831</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.41266614444433</v>
+        <v>0.6078706130607259</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0006965634052110593</v>
+        <v>0.002385187332382827</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.532405030616644</v>
+        <v>0.8393590862122977</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4200073678782772</v>
+        <v>0.9828760441896875</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.259766946989942</v>
+        <v>2.113058070332499</v>
       </c>
       <c r="C18">
-        <v>3.281496583550734</v>
+        <v>0.8895963011008803</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.333823041071668</v>
+        <v>0.5927031290883349</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0006999529705815266</v>
+        <v>0.002386739545024962</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.488075913303192</v>
+        <v>0.8325523840099009</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4270131842674729</v>
+        <v>0.9862976599282405</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.184768103350734</v>
+        <v>2.096488284122017</v>
       </c>
       <c r="C19">
-        <v>3.246330763140179</v>
+        <v>0.8821038392931655</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.3074455124043</v>
+        <v>0.5875727015139347</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007010971999249039</v>
+        <v>0.002387268388506062</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.473282609473898</v>
+        <v>0.8302607966581519</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4294649773255657</v>
+        <v>0.9874659717485272</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.524682713603568</v>
+        <v>2.171116240855895</v>
       </c>
       <c r="C20">
-        <v>3.405916851919926</v>
+        <v>0.9158463333425289</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.427414979618064</v>
+        <v>0.6106801922959306</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.6429339538360921</v>
       </c>
       <c r="G20">
-        <v>0.0006959343256001116</v>
+        <v>0.002384901614317079</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.540715299695975</v>
+        <v>0.8406250739483454</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4187497088366499</v>
+        <v>0.9822474496504654</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.715664696595127</v>
+        <v>2.422976207460863</v>
       </c>
       <c r="C21">
-        <v>3.969287115941484</v>
+        <v>1.029684786259168</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.856595866873249</v>
+        <v>0.6886878007014161</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0006782681103092436</v>
+        <v>0.002377177516107443</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.784581443400597</v>
+        <v>0.8763695015060478</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3890133537583296</v>
+        <v>0.9654020878037457</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.540228896083477</v>
+        <v>2.588457975055405</v>
       </c>
       <c r="C22">
-        <v>4.363278392933012</v>
+        <v>1.104459148958256</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.16235007404525</v>
+        <v>0.7399699545040619</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0006663679856207963</v>
+        <v>0.002372298089386293</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.960090840611954</v>
+        <v>0.9004347920796079</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3752622805030938</v>
+        <v>0.9549122607224021</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.095187739192966</v>
+        <v>2.500054300966269</v>
       </c>
       <c r="C23">
-        <v>4.150220963932043</v>
+        <v>1.064514764078524</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.996408582313265</v>
+        <v>0.7125707092548481</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>0.7472568307916134</v>
       </c>
       <c r="G23">
-        <v>0.0006727604467219245</v>
+        <v>0.002374886968895823</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.864699958304286</v>
+        <v>0.8875251417975534</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3820054715268029</v>
+        <v>0.9604629013972996</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.505853329885326</v>
+        <v>2.167013920525392</v>
       </c>
       <c r="C24">
-        <v>3.397062853668388</v>
+        <v>0.9139916587402581</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.420740989519203</v>
+        <v>0.609409909673829</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0006962187979195592</v>
+        <v>0.002385030725570155</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.536954148094253</v>
+        <v>0.8400524924544897</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4193167689926725</v>
+        <v>0.9825314539549126</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.932663967899884</v>
+        <v>1.811270555958458</v>
       </c>
       <c r="C25">
-        <v>2.662976189181506</v>
+        <v>0.753072052581274</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.874517421953243</v>
+        <v>0.4992650714670361</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.0007206810934712416</v>
+        <v>0.002396704366730327</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.233688860821758</v>
+        <v>0.791758563825681</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4780141611730144</v>
+        <v>1.008523746835372</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.551991501684256</v>
+        <v>4.850495773714044</v>
       </c>
       <c r="C2">
-        <v>0.6356254217462265</v>
+        <v>2.164387775068121</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4189517054670944</v>
+        <v>1.511065517768031</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002405939069815402</v>
+        <v>0.0007385033379123662</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7585760744539272</v>
+        <v>1.038631860554318</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.02950034710998</v>
+        <v>0.5324331298695242</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.37776271018447</v>
+        <v>4.148732820617681</v>
       </c>
       <c r="C3">
-        <v>0.5565799236435964</v>
+        <v>1.843800358769784</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3649226721706498</v>
+        <v>1.280373292987591</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002412601349006005</v>
+        <v>0.0007506498255273053</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7375074338506096</v>
+        <v>0.9187968439979386</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.044842132735837</v>
+        <v>0.5746690472755134</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.271467160817167</v>
+        <v>3.729412055515354</v>
       </c>
       <c r="C4">
-        <v>0.50828578767198</v>
+        <v>1.653266581792423</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3319174917557319</v>
+        <v>1.144338045941609</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002416892817716384</v>
+        <v>0.0007581886538858829</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7252513311404556</v>
+        <v>0.8499756024276763</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.054810370801782</v>
+        <v>0.6028298733256463</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.228315569744439</v>
+        <v>3.560937093675705</v>
       </c>
       <c r="C5">
-        <v>0.4886617989130286</v>
+        <v>1.576930200475033</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3185061684469304</v>
+        <v>1.090055937424694</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002418692344663421</v>
+        <v>0.0007612870257253884</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7204251029660398</v>
+        <v>0.822958710251541</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.05900933531106</v>
+        <v>0.6148136527574195</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.221160035919183</v>
+        <v>3.533093542386609</v>
       </c>
       <c r="C6">
-        <v>0.4854065297942043</v>
+        <v>1.564326194494697</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.316281444221346</v>
+        <v>1.081105329192283</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002418994224562265</v>
+        <v>0.0007618032499052722</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.719633791474493</v>
+        <v>0.8185302120128028</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.059714803632211</v>
+        <v>0.6168328468229944</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.270884545222145</v>
+        <v>3.727130836587435</v>
       </c>
       <c r="C7">
-        <v>0.5080209092781729</v>
+        <v>1.652232126870501</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3317364709654385</v>
+        <v>1.143601619334419</v>
       </c>
       <c r="F7">
-        <v>0.3529483938368969</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002416916881149708</v>
+        <v>0.0007582303262665549</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7251855654249155</v>
+        <v>0.8496072845843159</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.054866446874875</v>
+        <v>0.6029894973997756</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.49177182103989</v>
+        <v>4.605798813441254</v>
       </c>
       <c r="C8">
-        <v>0.6083181766624648</v>
+        <v>2.052358666069097</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4002850610186499</v>
+        <v>1.430189499406396</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813905</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002408194683528328</v>
+        <v>0.0007426785098595401</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7511687474827511</v>
+        <v>0.9962160973630318</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.034675754878535</v>
+        <v>0.5464997939210505</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.930668248630298</v>
+        <v>6.448260477351027</v>
       </c>
       <c r="C9">
-        <v>0.8071035520439409</v>
+        <v>2.902343362902627</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5362332550958797</v>
+        <v>2.051121901323896</v>
       </c>
       <c r="F9">
-        <v>0.5661985755042025</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002392673408746092</v>
+        <v>0.0007124997655540977</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8076488590455853</v>
+        <v>1.330628956569399</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9994797420445778</v>
+        <v>0.4562441765568934</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.25711722778982</v>
+        <v>7.923442516277646</v>
       </c>
       <c r="C10">
-        <v>0.9547238745029176</v>
+        <v>3.593805862697991</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6373123177370275</v>
+        <v>2.569549740570707</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990957</v>
       </c>
       <c r="G10">
-        <v>0.002382220330240365</v>
+        <v>0.0006899497182051289</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8527023129189644</v>
+        <v>1.62106646460694</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9763672942018147</v>
+        <v>0.4074597520707144</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.406605810174312</v>
+        <v>8.636025801255244</v>
       </c>
       <c r="C11">
-        <v>1.022286925098285</v>
+        <v>3.931407576529864</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.68361605766016</v>
+        <v>2.827450752700116</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002377668169104021</v>
+        <v>0.0006794307873374984</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8740126251813223</v>
+        <v>1.767914691248791</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.966463499868297</v>
+        <v>0.3906326397519848</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.463363635692303</v>
+        <v>8.913575523296288</v>
       </c>
       <c r="C12">
-        <v>1.047935406917645</v>
+        <v>4.063552821650944</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7012013049098442</v>
+        <v>2.929312947931635</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.002375973328281821</v>
+        <v>0.000675389299474018</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8822029268833944</v>
+        <v>1.826218778084453</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9628021839106822</v>
+        <v>0.3852132986226735</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.451133031878612</v>
+        <v>8.853423691187459</v>
       </c>
       <c r="C13">
-        <v>1.042408629878139</v>
+        <v>4.034882427478806</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6974116622608335</v>
+        <v>2.907167949990537</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.002376337057931198</v>
+        <v>0.0006762626964801775</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8804335838799204</v>
+        <v>1.813530873627954</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9635867329948624</v>
+        <v>0.386334574432091</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.411272262603973</v>
+        <v>8.658693556461799</v>
       </c>
       <c r="C14">
-        <v>1.024395733631081</v>
+        <v>3.94218622069036</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6850617567150294</v>
+        <v>2.835739645827616</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142266</v>
       </c>
       <c r="G14">
-        <v>0.002377528154304424</v>
+        <v>0.0006790996002419935</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8746840110158161</v>
+        <v>1.772653416817903</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9661604892784084</v>
+        <v>0.3901664526772208</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.386876134457168</v>
+        <v>8.540480572919989</v>
       </c>
       <c r="C15">
-        <v>1.013370773093243</v>
+        <v>3.886002115841904</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6775038687183752</v>
+        <v>2.792571395959158</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002378261500348605</v>
+        <v>0.0006808289810493751</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.871178030222552</v>
+        <v>1.747986075545313</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9677486233058801</v>
+        <v>0.39264399387325</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.24736830803397</v>
+        <v>7.877846097202564</v>
       </c>
       <c r="C16">
-        <v>0.9503171321304649</v>
+        <v>3.572284387971422</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6342931427580538</v>
+        <v>2.553219493799503</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002382521890145395</v>
+        <v>0.0006906302791833685</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8513263208980533</v>
+        <v>1.611811503768209</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9770269186641514</v>
+        <v>0.4086816883867215</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.162042799645235</v>
+        <v>7.483059053795841</v>
       </c>
       <c r="C17">
-        <v>0.9117441722768831</v>
+        <v>3.386346648154642</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6078706130607259</v>
+        <v>2.412666144444344</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002385187332382827</v>
+        <v>0.0006965634051436524</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8393590862122977</v>
+        <v>1.532405030616658</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9828760441896875</v>
+        <v>0.4200073678782843</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.113058070332499</v>
+        <v>7.259766946989942</v>
       </c>
       <c r="C18">
-        <v>0.8895963011008803</v>
+        <v>3.281496583551075</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5927031290883349</v>
+        <v>2.33382304107171</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002386739545024962</v>
+        <v>0.0006999529705619489</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8325523840099009</v>
+        <v>1.48807591330322</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9862976599282405</v>
+        <v>0.4270131842674374</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.096488284122017</v>
+        <v>7.184768103350791</v>
       </c>
       <c r="C19">
-        <v>0.8821038392931655</v>
+        <v>3.246330763140008</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5875727015139347</v>
+        <v>2.307445512404271</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.002387268388506062</v>
+        <v>0.0007010971998574908</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8302607966581519</v>
+        <v>1.473282609473884</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9874659717485272</v>
+        <v>0.4294649773255657</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.171116240855895</v>
+        <v>7.52468271360334</v>
       </c>
       <c r="C20">
-        <v>0.9158463333425289</v>
+        <v>3.405916851919926</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6106801922959306</v>
+        <v>2.427414979618035</v>
       </c>
       <c r="F20">
-        <v>0.6429339538360921</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002384901614317079</v>
+        <v>0.0006959343257231652</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8406250739483454</v>
+        <v>1.540715299695961</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9822474496504654</v>
+        <v>0.4187497088366499</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.422976207460863</v>
+        <v>8.715664696594899</v>
       </c>
       <c r="C21">
-        <v>1.029684786259168</v>
+        <v>3.96928711594137</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6886878007014161</v>
+        <v>2.856595866873278</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002377177516107443</v>
+        <v>0.0006782681102379027</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8763695015060478</v>
+        <v>1.784581443400597</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9654020878037457</v>
+        <v>0.3890133537583935</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.588457975055405</v>
+        <v>9.540228896083306</v>
       </c>
       <c r="C22">
-        <v>1.104459148958256</v>
+        <v>4.363278392932898</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7399699545040619</v>
+        <v>3.162350074045236</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.002372298089386293</v>
+        <v>0.0006663679856941325</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9004347920796079</v>
+        <v>1.960090840611954</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9549122607224021</v>
+        <v>0.3752622805030867</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.500054300966269</v>
+        <v>9.095187739192909</v>
       </c>
       <c r="C23">
-        <v>1.064514764078524</v>
+        <v>4.150220963931986</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7125707092548481</v>
+        <v>2.996408582313251</v>
       </c>
       <c r="F23">
-        <v>0.7472568307916134</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002374886968895823</v>
+        <v>0.000672760446667635</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8875251417975534</v>
+        <v>1.8646999583043</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9604629013972996</v>
+        <v>0.3820054715268029</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.167013920525392</v>
+        <v>7.505853329885326</v>
       </c>
       <c r="C24">
-        <v>0.9139916587402581</v>
+        <v>3.397062853668103</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.609409909673829</v>
+        <v>2.420740989519174</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
-        <v>0.002385030725570155</v>
+        <v>0.0006962187979205584</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8400524924544897</v>
+        <v>1.536954148094253</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9825314539549126</v>
+        <v>0.4193167689926653</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.811270555958458</v>
+        <v>5.932663967899828</v>
       </c>
       <c r="C25">
-        <v>0.753072052581274</v>
+        <v>2.662976189181393</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4992650714670361</v>
+        <v>1.8745174219532</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.002396704366730327</v>
+        <v>0.0007206810935236442</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.791758563825681</v>
+        <v>1.233688860821786</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.008523746835372</v>
+        <v>0.4780141611730073</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.850495773714044</v>
+        <v>2.159403234497745</v>
       </c>
       <c r="C2">
-        <v>2.164387775068121</v>
+        <v>0.3818429119130684</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.511065517768031</v>
+        <v>0.08497333104572213</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007385033379123662</v>
+        <v>0.2453031283794473</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001978616694521262</v>
       </c>
       <c r="I2">
-        <v>1.038631860554318</v>
+        <v>0.0009389934475976247</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2256450787794648</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2276178302420284</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5324331298695242</v>
+        <v>0.3278664555800788</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9340518723160898</v>
+      </c>
+      <c r="Q2">
+        <v>0.9419484793329502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.148732820617681</v>
+        <v>1.88230197683319</v>
       </c>
       <c r="C3">
-        <v>1.843800358769784</v>
+        <v>0.3549235907899657</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.280373292987591</v>
+        <v>0.08119028621726798</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007506498255273053</v>
+        <v>0.2312660502726374</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.073615924118698E-05</v>
       </c>
       <c r="I3">
-        <v>0.9187968439979386</v>
+        <v>0.0005614681060603921</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2227825958285692</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2301800784911787</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5746690472755134</v>
+        <v>0.2903968267386574</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9160053195491429</v>
+      </c>
+      <c r="Q3">
+        <v>0.9059453852314334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.729412055515354</v>
+        <v>1.711315498617665</v>
       </c>
       <c r="C4">
-        <v>1.653266581792423</v>
+        <v>0.3384335131531344</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.144338045941609</v>
+        <v>0.07883916029931726</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007581886538858829</v>
+        <v>0.2229018032378889</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.296612023038435E-05</v>
       </c>
       <c r="I4">
-        <v>0.8499756024276763</v>
+        <v>0.0004557994745191252</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2212199108273296</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2319608877328516</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6028298733256463</v>
+        <v>0.2673950972879879</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.9056114937738684</v>
+      </c>
+      <c r="Q4">
+        <v>0.8847801271043778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.560937093675705</v>
+        <v>1.640417932531449</v>
       </c>
       <c r="C5">
-        <v>1.576930200475033</v>
+        <v>0.3320801667135811</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.090055937424694</v>
+        <v>0.07782735052048473</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007612870257253884</v>
+        <v>0.2192548915424197</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.207184162063893E-05</v>
       </c>
       <c r="I5">
-        <v>0.822958710251541</v>
+        <v>0.0005069481994155467</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2204754162156348</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2325148250964038</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6148136527574195</v>
+        <v>0.2580848898303003</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.9020220211465784</v>
+      </c>
+      <c r="Q5">
+        <v>0.8754221659643378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.533093542386609</v>
+        <v>1.627400044288692</v>
       </c>
       <c r="C6">
-        <v>1.564326194494697</v>
+        <v>0.3314662905809342</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.081105329192283</v>
+        <v>0.07760224218826473</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0007618032499052722</v>
+        <v>0.2182878812849154</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.888803057767621E-05</v>
       </c>
       <c r="I6">
-        <v>0.8185302120128028</v>
+        <v>0.0006029581077617863</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2201650647669595</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.232338529315717</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6168328468229944</v>
+        <v>0.2566168733086727</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.9020234441076695</v>
+      </c>
+      <c r="Q6">
+        <v>0.8727106169759367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.727130836587435</v>
+        <v>1.706982668564422</v>
       </c>
       <c r="C7">
-        <v>1.652232126870501</v>
+        <v>0.3395561833497425</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.143601619334419</v>
+        <v>0.07867111061739607</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0007582303262665549</v>
+        <v>0.2218548797085944</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.369214078195125E-05</v>
       </c>
       <c r="I7">
-        <v>0.8496072845843159</v>
+        <v>0.0006757827738503863</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2206924546346158</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2312282443268394</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6029894973997756</v>
+        <v>0.2674833533361323</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.9071814707776014</v>
+      </c>
+      <c r="Q7">
+        <v>0.8814545139115495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.605798813441254</v>
+        <v>2.059520406980539</v>
       </c>
       <c r="C8">
-        <v>2.052358666069097</v>
+        <v>0.3741742728034438</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.430189499406396</v>
+        <v>0.08347164113114935</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007426785098595401</v>
+        <v>0.2390867634901994</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001065589251131316</v>
       </c>
       <c r="I8">
-        <v>0.9962160973630318</v>
+        <v>0.001045133133665388</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2239347922357027</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2274848469423389</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5464997939210505</v>
+        <v>0.3152310795191369</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.9298907945072443</v>
+      </c>
+      <c r="Q8">
+        <v>0.9251027803276628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.448260477351027</v>
+        <v>2.750294554731795</v>
       </c>
       <c r="C9">
-        <v>2.902343362902627</v>
+        <v>0.4402741625463449</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.051121901323896</v>
+        <v>0.09294662370711748</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007124997655540977</v>
+        <v>0.2768708055494784</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001292414408906484</v>
       </c>
       <c r="I9">
-        <v>1.330628956569399</v>
+        <v>0.002514516492272634</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2328392186515771</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2231850740424228</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4562441765568934</v>
+        <v>0.4085974310874008</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.9771117300875147</v>
+      </c>
+      <c r="Q9">
+        <v>1.02443823592931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.923442516277646</v>
+        <v>3.23628608686613</v>
       </c>
       <c r="C10">
-        <v>3.593805862697991</v>
+        <v>0.4939434591477436</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.569549740570707</v>
+        <v>0.09607073158931634</v>
       </c>
       <c r="F10">
-        <v>2.275587181990957</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0006899497182051289</v>
+        <v>0.3007118737799104</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002927570341617169</v>
       </c>
       <c r="I10">
-        <v>1.62106646460694</v>
+        <v>0.004421637360813691</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2376940760458552</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2176867503247273</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4074597520707144</v>
+        <v>0.4580826291292226</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>1.024755951253084</v>
+      </c>
+      <c r="Q10">
+        <v>1.085542973128298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.636025801255244</v>
+        <v>3.312100368142012</v>
       </c>
       <c r="C11">
-        <v>3.931407576529864</v>
+        <v>0.5583109625417819</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.827450752700116</v>
+        <v>0.0722487199672468</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0006794307873374984</v>
+        <v>0.2678178454507858</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0212958424631573</v>
       </c>
       <c r="I11">
-        <v>1.767914691248791</v>
+        <v>0.005388699642724148</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2178031750837093</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1887908328035905</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3906326397519848</v>
+        <v>0.3270678394818987</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1.127395474343032</v>
+      </c>
+      <c r="Q11">
+        <v>0.9743076921165823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.913575523296288</v>
+        <v>3.277223838245618</v>
       </c>
       <c r="C12">
-        <v>4.063552821650944</v>
+        <v>0.6022622886274007</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.929312947931635</v>
+        <v>0.06059319586321266</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000675389299474018</v>
+        <v>0.2377776261950899</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05969661673998417</v>
       </c>
       <c r="I12">
-        <v>1.826218778084453</v>
+        <v>0.005422835533725134</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2012153307340441</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1686947643788983</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3852132986226735</v>
+        <v>0.2255140598148273</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1.207687540550907</v>
+      </c>
+      <c r="Q12">
+        <v>0.8759382368046573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.853423691187459</v>
+        <v>3.150099713378552</v>
       </c>
       <c r="C13">
-        <v>4.034882427478806</v>
+        <v>0.6344893802047693</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.907167949990537</v>
+        <v>0.05722519933871695</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.0006762626964801775</v>
+        <v>0.2065944897535061</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1150672555663164</v>
       </c>
       <c r="I13">
-        <v>1.813530873627954</v>
+        <v>0.005055716170522473</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1853529152774342</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.152949699344255</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.386334574432091</v>
+        <v>0.1414126923974521</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>1.276696550723386</v>
+      </c>
+      <c r="Q13">
+        <v>0.776588850393864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.658693556461799</v>
+        <v>3.018887729999904</v>
       </c>
       <c r="C14">
-        <v>3.94218622069036</v>
+        <v>0.6522907076677313</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.835739645827616</v>
+        <v>0.05973134895856624</v>
       </c>
       <c r="F14">
-        <v>2.457142640142266</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0006790996002419935</v>
+        <v>0.1843652770879345</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1641190599716253</v>
       </c>
       <c r="I14">
-        <v>1.772653416817903</v>
+        <v>0.004707841805582369</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1746002596558753</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1440878768936233</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3901664526772208</v>
+        <v>0.09356749652570784</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>1.320684632421219</v>
+      </c>
+      <c r="Q14">
+        <v>0.706893996767576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.540480572919989</v>
+        <v>2.966391062485854</v>
       </c>
       <c r="C15">
-        <v>3.886002115841904</v>
+        <v>0.6543061982196718</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.792571395959158</v>
+        <v>0.06094406753304593</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0006808289810493751</v>
+        <v>0.1782931265027514</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1765013105291899</v>
       </c>
       <c r="I15">
-        <v>1.747986075545313</v>
+        <v>0.00464347258925546</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.171940293345564</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1424497239766094</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.39264399387325</v>
+        <v>0.08319631940216254</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>1.328842125725387</v>
+      </c>
+      <c r="Q15">
+        <v>0.6884208223203956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.877846097202564</v>
+        <v>2.784330281189682</v>
       </c>
       <c r="C16">
-        <v>3.572284387971422</v>
+        <v>0.6241195768481305</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.553219493799503</v>
+        <v>0.06019277782622279</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0006906302791833685</v>
+        <v>0.1740385139813512</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1631220732235619</v>
       </c>
       <c r="I16">
-        <v>1.611811503768209</v>
+        <v>0.004001081822297969</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.172764526898689</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1474718685550034</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4086816883867215</v>
+        <v>0.08146886686861876</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>1.291284639246442</v>
+      </c>
+      <c r="Q16">
+        <v>0.6809609581535199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.483059053795841</v>
+        <v>2.714004538481049</v>
       </c>
       <c r="C17">
-        <v>3.386346648154642</v>
+        <v>0.5915878813375741</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.412666144444344</v>
+        <v>0.057504246382587</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0006965634051436524</v>
+        <v>0.1824177933190043</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1250078731071511</v>
       </c>
       <c r="I17">
-        <v>1.532405030616658</v>
+        <v>0.003721633584357953</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.179067599402174</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1558660766281186</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4200073678782843</v>
+        <v>0.1033948321802995</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>1.239496368508242</v>
+      </c>
+      <c r="Q17">
+        <v>0.7118245582788916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.259766946989942</v>
+        <v>2.73419133027511</v>
       </c>
       <c r="C18">
-        <v>3.281496583551075</v>
+        <v>0.5532204953998701</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.33382304107171</v>
+        <v>0.05715349308391859</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0006999529705619489</v>
+        <v>0.2039759781881827</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07215236941927117</v>
       </c>
       <c r="I18">
-        <v>1.48807591330322</v>
+        <v>0.003439053682093629</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1914112328291608</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1695286249992076</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4270131842674374</v>
+        <v>0.1581138878199226</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>1.17030010089006</v>
+      </c>
+      <c r="Q18">
+        <v>0.7833265371272518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.184768103350791</v>
+        <v>2.819494073219005</v>
       </c>
       <c r="C19">
-        <v>3.246330763140008</v>
+        <v>0.5174731731730731</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.307445512404271</v>
+        <v>0.06506238362859662</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.0007010971998574908</v>
+        <v>0.2343248147685131</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02722844349652576</v>
       </c>
       <c r="I19">
-        <v>1.473282609473884</v>
+        <v>0.003688851633294021</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2074432269742488</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1871925725726715</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4294649773255657</v>
+        <v>0.2508571001697533</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1.099820450845343</v>
+      </c>
+      <c r="Q19">
+        <v>0.881233478972959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.52468271360334</v>
+        <v>3.097487202071136</v>
       </c>
       <c r="C20">
-        <v>3.405916851919926</v>
+        <v>0.4839572685846463</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.427414979618035</v>
+        <v>0.09463893170755355</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0006959343257231652</v>
+        <v>0.2910304809670592</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002412064063778807</v>
       </c>
       <c r="I20">
-        <v>1.540715299695961</v>
+        <v>0.00456556016688392</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2346505017995639</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2166901700472437</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4187497088366499</v>
+        <v>0.4449463820103432</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1.017849020292758</v>
+      </c>
+      <c r="Q20">
+        <v>1.058542453884684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.715664696594899</v>
+        <v>3.495885521854404</v>
       </c>
       <c r="C21">
-        <v>3.96928711594137</v>
+        <v>0.518211208201393</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.856595866873278</v>
+        <v>0.1027494350180298</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0006782681102379027</v>
+        <v>0.318364986839299</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.003858974075131028</v>
       </c>
       <c r="I21">
-        <v>1.784581443400597</v>
+        <v>0.00622970130884859</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2430315496072382</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2182353975909912</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3890133537583935</v>
+        <v>0.5129084830026187</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1.041902150610483</v>
+      </c>
+      <c r="Q21">
+        <v>1.134339962642315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.540228896083306</v>
+        <v>3.752083661190738</v>
       </c>
       <c r="C22">
-        <v>4.363278392932898</v>
+        <v>0.5411458383159129</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3.162350074045236</v>
+        <v>0.1063748715069934</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006663679856941325</v>
+        <v>0.3353470026079179</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004988849124058059</v>
       </c>
       <c r="I22">
-        <v>1.960090840611954</v>
+        <v>0.007186058692280284</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2481158740003906</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2188264973688057</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3752622805030867</v>
+        <v>0.5472216861121808</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1.060284735675751</v>
+      </c>
+      <c r="Q22">
+        <v>1.181176240833338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.095187739192909</v>
+        <v>3.619528359865853</v>
       </c>
       <c r="C23">
-        <v>4.150220963931986</v>
+        <v>0.5273836171534754</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.996408582313251</v>
+        <v>0.1046186985431135</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.000672760446667635</v>
+        <v>0.3274213507913544</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.004377363147872293</v>
       </c>
       <c r="I23">
-        <v>1.8646999583043</v>
+        <v>0.006390421068811492</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2459789291659717</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2193303852780062</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3820054715268029</v>
+        <v>0.5286377874029426</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>1.048269798581345</v>
+      </c>
+      <c r="Q23">
+        <v>1.159799550780292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.505853329885326</v>
+        <v>3.109776017441106</v>
       </c>
       <c r="C24">
-        <v>3.397062853668103</v>
+        <v>0.4778665088342109</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.420740989519174</v>
+        <v>0.09766511466531824</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0006962187979205584</v>
+        <v>0.296366363853771</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002377297116352817</v>
       </c>
       <c r="I24">
-        <v>1.536954148094253</v>
+        <v>0.004136799415175751</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2374453915839183</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2204483201264971</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4193167689926653</v>
+        <v>0.4588198192317776</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>1.007726471385652</v>
+      </c>
+      <c r="Q24">
+        <v>1.075704942305094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.932663967899828</v>
+        <v>2.557889714818373</v>
       </c>
       <c r="C25">
-        <v>2.662976189181393</v>
+        <v>0.4245921997832767</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.8745174219532</v>
+        <v>0.0901293597914048</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007206810935236442</v>
+        <v>0.2645822809585354</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0008485044015080767</v>
       </c>
       <c r="I25">
-        <v>1.233688860821786</v>
+        <v>0.002371824563027758</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2293186484697998</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2228386157851645</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1682,16 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4780141611730073</v>
+        <v>0.3837099403618396</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.9668163496836684</v>
+      </c>
+      <c r="Q25">
+        <v>0.990860719868266</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.159403234497745</v>
+        <v>2.117529555418287</v>
       </c>
       <c r="C2">
-        <v>0.3818429119130684</v>
+        <v>0.3829124375122319</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08497333104572213</v>
+        <v>0.08156446921549865</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2453031283794473</v>
+        <v>0.2152800981704601</v>
       </c>
       <c r="H2">
-        <v>0.0001978616694521262</v>
+        <v>0.0002362180856253504</v>
       </c>
       <c r="I2">
-        <v>0.0009389934475976247</v>
+        <v>0.001149476099946867</v>
       </c>
       <c r="J2">
-        <v>0.2256450787794648</v>
+        <v>0.2591290180381378</v>
       </c>
       <c r="K2">
-        <v>0.2276178302420284</v>
+        <v>0.2143454833220488</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1264021772862254</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04605090872603235</v>
       </c>
       <c r="N2">
-        <v>0.3278664555800788</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9340518723160898</v>
+        <v>0.3325154193461515</v>
       </c>
       <c r="Q2">
-        <v>0.9419484793329502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9503340152442661</v>
+      </c>
+      <c r="S2">
+        <v>0.9005932269661372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.88230197683319</v>
+        <v>1.851345231011777</v>
       </c>
       <c r="C3">
-        <v>0.3549235907899657</v>
+        <v>0.3514140466011497</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08119028621726798</v>
+        <v>0.07830417291092218</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.2312660502726374</v>
+        <v>0.203567474457742</v>
       </c>
       <c r="H3">
-        <v>1.073615924118698E-05</v>
+        <v>2.790410905140206E-05</v>
       </c>
       <c r="I3">
-        <v>0.0005614681060603921</v>
+        <v>0.0007476243405917238</v>
       </c>
       <c r="J3">
-        <v>0.2227825958285692</v>
+        <v>0.2558955031743082</v>
       </c>
       <c r="K3">
-        <v>0.2301800784911787</v>
+        <v>0.2179569642428767</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1311811634529789</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.04531643362665871</v>
       </c>
       <c r="N3">
-        <v>0.2903968267386574</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9160053195491429</v>
+        <v>0.2946461680283932</v>
       </c>
       <c r="Q3">
-        <v>0.9059453852314334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9250740871641767</v>
+      </c>
+      <c r="S3">
+        <v>0.8716591695902878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.711315498617665</v>
+        <v>1.686812639456804</v>
       </c>
       <c r="C4">
-        <v>0.3384335131531344</v>
+        <v>0.3322060602125561</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07883916029931726</v>
+        <v>0.07627015440599116</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.2229018032378889</v>
+        <v>0.196607393471659</v>
       </c>
       <c r="H4">
-        <v>1.296612023038435E-05</v>
+        <v>1.322271613979353E-06</v>
       </c>
       <c r="I4">
-        <v>0.0004557994745191252</v>
+        <v>0.000610076810978466</v>
       </c>
       <c r="J4">
-        <v>0.2212199108273296</v>
+        <v>0.2539714071653947</v>
       </c>
       <c r="K4">
-        <v>0.2319608877328516</v>
+        <v>0.2203226498331876</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1342680484249286</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.04532799446456526</v>
       </c>
       <c r="N4">
-        <v>0.2673950972879879</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9056114937738684</v>
+        <v>0.2714125103461384</v>
       </c>
       <c r="Q4">
-        <v>0.8847801271043778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9103616656991136</v>
+      </c>
+      <c r="S4">
+        <v>0.8545519584937153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.640417932531449</v>
+        <v>1.618489568478282</v>
       </c>
       <c r="C5">
-        <v>0.3320801667135811</v>
+        <v>0.3247849565198493</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07782735052048473</v>
+        <v>0.07538769472093243</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.2192548915424197</v>
+        <v>0.1935365470568655</v>
       </c>
       <c r="H5">
-        <v>4.207184162063893E-05</v>
+        <v>1.48229166506697E-05</v>
       </c>
       <c r="I5">
-        <v>0.0005069481994155467</v>
+        <v>0.0006568882436495116</v>
       </c>
       <c r="J5">
-        <v>0.2204754162156348</v>
+        <v>0.2530426586352803</v>
       </c>
       <c r="K5">
-        <v>0.2325148250964038</v>
+        <v>0.2211100522986005</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.135444482705406</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.04540630957072889</v>
       </c>
       <c r="N5">
-        <v>0.2580848898303003</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9020220211465784</v>
+        <v>0.2620117899906944</v>
       </c>
       <c r="Q5">
-        <v>0.8754221659643378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9050564950095037</v>
+      </c>
+      <c r="S5">
+        <v>0.8467971161572194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.627400044288692</v>
+        <v>1.605902475490865</v>
       </c>
       <c r="C6">
-        <v>0.3314662905809342</v>
+        <v>0.324015464567367</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07760224218826473</v>
+        <v>0.07518530216609065</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.2182878812849154</v>
+        <v>0.1926771191194874</v>
       </c>
       <c r="H6">
-        <v>4.888803057767621E-05</v>
+        <v>1.869974487433979E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006029581077617863</v>
+        <v>0.0007689309903442521</v>
       </c>
       <c r="J6">
-        <v>0.2201650647669595</v>
+        <v>0.252694420082058</v>
       </c>
       <c r="K6">
-        <v>0.232338529315717</v>
+        <v>0.2209836863508201</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1354964939003143</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04537445516099581</v>
       </c>
       <c r="N6">
-        <v>0.2566168733086727</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9020234441076695</v>
+        <v>0.2605294809230685</v>
       </c>
       <c r="Q6">
-        <v>0.8727106169759367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9047946754225649</v>
+      </c>
+      <c r="S6">
+        <v>0.8443705722946646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.706982668564422</v>
+        <v>1.681274345146818</v>
       </c>
       <c r="C7">
-        <v>0.3395561833497425</v>
+        <v>0.332910632275599</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07867111061739607</v>
+        <v>0.07613594515056121</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.2218548797085944</v>
+        <v>0.1978229579761717</v>
       </c>
       <c r="H7">
-        <v>1.369214078195125E-05</v>
+        <v>1.6306391310561E-06</v>
       </c>
       <c r="I7">
-        <v>0.0006757827738503863</v>
+        <v>0.0008731884775112775</v>
       </c>
       <c r="J7">
-        <v>0.2206924546346158</v>
+        <v>0.2500348567342101</v>
       </c>
       <c r="K7">
-        <v>0.2312282443268394</v>
+        <v>0.2193727865140822</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1337593522487648</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04512078672991748</v>
       </c>
       <c r="N7">
-        <v>0.2674833533361323</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9071814707776014</v>
+        <v>0.2714098826282623</v>
       </c>
       <c r="Q7">
-        <v>0.8814545139115495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9126086986094606</v>
+      </c>
+      <c r="S7">
+        <v>0.8492371981352278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.059520406980539</v>
+        <v>2.01727529658092</v>
       </c>
       <c r="C8">
-        <v>0.3741742728034438</v>
+        <v>0.3721823354373015</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08347164113114935</v>
+        <v>0.0803472510790133</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.2390867634901994</v>
+        <v>0.2173628830124485</v>
       </c>
       <c r="H8">
-        <v>0.0001065589251131316</v>
+        <v>0.0001385351774964017</v>
       </c>
       <c r="I8">
-        <v>0.001045133133665388</v>
+        <v>0.001300929796095751</v>
       </c>
       <c r="J8">
-        <v>0.2239347922357027</v>
+        <v>0.2462919482972552</v>
       </c>
       <c r="K8">
-        <v>0.2274848469423389</v>
+        <v>0.2138131717244036</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1271638692789487</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04522362428530968</v>
       </c>
       <c r="N8">
-        <v>0.3152310795191369</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9298907945072443</v>
+        <v>0.3194382935894708</v>
       </c>
       <c r="Q8">
-        <v>0.9251027803276628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.945971249722831</v>
+      </c>
+      <c r="S8">
+        <v>0.8794856894052572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.750294554731795</v>
+        <v>2.678091151207184</v>
       </c>
       <c r="C9">
-        <v>0.4402741625463449</v>
+        <v>0.4497060439326219</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09294662370711748</v>
+        <v>0.08852150359605204</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.2768708055494784</v>
+        <v>0.25127134953145</v>
       </c>
       <c r="H9">
-        <v>0.001292414408906484</v>
+        <v>0.001274432904984413</v>
       </c>
       <c r="I9">
-        <v>0.002514516492272634</v>
+        <v>0.002667025107327525</v>
       </c>
       <c r="J9">
-        <v>0.2328392186515771</v>
+        <v>0.2523331453883983</v>
       </c>
       <c r="K9">
-        <v>0.2231850740424228</v>
+        <v>0.2063073582047465</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1165424840372733</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04967237354878762</v>
       </c>
       <c r="N9">
-        <v>0.4085974310874008</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9771117300875147</v>
+        <v>0.413779397174352</v>
       </c>
       <c r="Q9">
-        <v>1.02443823592931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.012477497214107</v>
+      </c>
+      <c r="S9">
+        <v>0.9575720283087747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.23628608686613</v>
+        <v>3.13479240477119</v>
       </c>
       <c r="C10">
-        <v>0.4939434591477436</v>
+        <v>0.5091694421543593</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09607073158931634</v>
+        <v>0.0910542965710448</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.3007118737799104</v>
+        <v>0.2861624236180873</v>
       </c>
       <c r="H10">
-        <v>0.002927570341617169</v>
+        <v>0.00276758628198337</v>
       </c>
       <c r="I10">
-        <v>0.004421637360813691</v>
+        <v>0.004398172807099421</v>
       </c>
       <c r="J10">
-        <v>0.2376940760458552</v>
+        <v>0.2368512919809973</v>
       </c>
       <c r="K10">
-        <v>0.2176867503247273</v>
+        <v>0.1973729090284522</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1079877521955162</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.0534748124601343</v>
       </c>
       <c r="N10">
-        <v>0.4580826291292226</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.024755951253084</v>
+        <v>0.4632941130287236</v>
       </c>
       <c r="Q10">
-        <v>1.085542973128298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.078830702473027</v>
+      </c>
+      <c r="S10">
+        <v>0.9917090170804528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.312100368142012</v>
+        <v>3.198567145043967</v>
       </c>
       <c r="C11">
-        <v>0.5583109625417819</v>
+        <v>0.568121244043283</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0722487199672468</v>
+        <v>0.06869152675356816</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2678178454507858</v>
+        <v>0.2845999221813429</v>
       </c>
       <c r="H11">
-        <v>0.0212958424631573</v>
+        <v>0.02108825815565751</v>
       </c>
       <c r="I11">
-        <v>0.005388699642724148</v>
+        <v>0.005367762676238286</v>
       </c>
       <c r="J11">
-        <v>0.2178031750837093</v>
+        <v>0.1890853075562262</v>
       </c>
       <c r="K11">
-        <v>0.1887908328035905</v>
+        <v>0.1701177690238769</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09662528677662507</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04542011701034099</v>
       </c>
       <c r="N11">
-        <v>0.3270678394818987</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.127395474343032</v>
+        <v>0.3300221369807872</v>
       </c>
       <c r="Q11">
-        <v>0.9743076921165823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.19587062703043</v>
+      </c>
+      <c r="S11">
+        <v>0.8678039259036581</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.277223838245618</v>
+        <v>3.164628001624976</v>
       </c>
       <c r="C12">
-        <v>0.6022622886274007</v>
+        <v>0.6069964199058973</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06059319586321266</v>
+        <v>0.05789680112042994</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.2377776261950899</v>
+        <v>0.2686987900472246</v>
       </c>
       <c r="H12">
-        <v>0.05969661673998417</v>
+        <v>0.05948842821229761</v>
       </c>
       <c r="I12">
-        <v>0.005422835533725134</v>
+        <v>0.005379127779162829</v>
       </c>
       <c r="J12">
-        <v>0.2012153307340441</v>
+        <v>0.1670594413066198</v>
       </c>
       <c r="K12">
-        <v>0.1686947643788983</v>
+        <v>0.1529175414963504</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09050442089256983</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03898388926003094</v>
       </c>
       <c r="N12">
-        <v>0.2255140598148273</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.207687540550907</v>
+        <v>0.2271900803471993</v>
       </c>
       <c r="Q12">
-        <v>0.8759382368046573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.281324475051363</v>
+      </c>
+      <c r="S12">
+        <v>0.7724977700676448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.150099713378552</v>
+        <v>3.05176054838239</v>
       </c>
       <c r="C13">
-        <v>0.6344893802047693</v>
+        <v>0.6360218397073538</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05722519933871695</v>
+        <v>0.05512502577192047</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.2065944897535061</v>
+        <v>0.2343725855789387</v>
       </c>
       <c r="H13">
-        <v>0.1150672555663164</v>
+        <v>0.1148955428956668</v>
       </c>
       <c r="I13">
-        <v>0.005055716170522473</v>
+        <v>0.00505627568131306</v>
       </c>
       <c r="J13">
-        <v>0.1853529152774342</v>
+        <v>0.1610049775281119</v>
       </c>
       <c r="K13">
-        <v>0.152949699344255</v>
+        <v>0.1411925809633452</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08699064458574757</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03337813676985846</v>
       </c>
       <c r="N13">
-        <v>0.1414126923974521</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.276696550723386</v>
+        <v>0.1424662321235388</v>
       </c>
       <c r="Q13">
-        <v>0.776588850393864</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.345496727159912</v>
+      </c>
+      <c r="S13">
+        <v>0.6911360238665338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.018887729999904</v>
+        <v>2.936139357417233</v>
       </c>
       <c r="C14">
-        <v>0.6522907076677313</v>
+        <v>0.6525137099914105</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05973134895856624</v>
+        <v>0.05798834595441349</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.1843652770879345</v>
+        <v>0.2035252878618792</v>
       </c>
       <c r="H14">
-        <v>0.1641190599716253</v>
+        <v>0.1639847418459652</v>
       </c>
       <c r="I14">
-        <v>0.004707841805582369</v>
+        <v>0.004780308393360855</v>
       </c>
       <c r="J14">
-        <v>0.1746002596558753</v>
+        <v>0.1621897955592253</v>
       </c>
       <c r="K14">
-        <v>0.1440878768936233</v>
+        <v>0.1353021057668418</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0854675024520879</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02995967480556061</v>
       </c>
       <c r="N14">
-        <v>0.09356749652570784</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.320684632421219</v>
+        <v>0.0943980991040263</v>
       </c>
       <c r="Q14">
-        <v>0.706893996767576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.381197362856199</v>
+      </c>
+      <c r="S14">
+        <v>0.639261785333801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.966391062485854</v>
+        <v>2.889890209697228</v>
       </c>
       <c r="C15">
-        <v>0.6543061982196718</v>
+        <v>0.654684350165553</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06094406753304593</v>
+        <v>0.05931029358943629</v>
       </c>
       <c r="F15">
         <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.1782931265027514</v>
+        <v>0.1928124237396531</v>
       </c>
       <c r="H15">
-        <v>0.1765013105291899</v>
+        <v>0.1763833373926076</v>
       </c>
       <c r="I15">
-        <v>0.00464347258925546</v>
+        <v>0.004768556660669887</v>
       </c>
       <c r="J15">
-        <v>0.171940293345564</v>
+        <v>0.1647783064899926</v>
       </c>
       <c r="K15">
-        <v>0.1424497239766094</v>
+        <v>0.1345164446910854</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08537088241985202</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02920005079896093</v>
       </c>
       <c r="N15">
-        <v>0.08319631940216254</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.328842125725387</v>
+        <v>0.08402959513200159</v>
       </c>
       <c r="Q15">
-        <v>0.6884208223203956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.385345935755268</v>
+      </c>
+      <c r="S15">
+        <v>0.627488278840076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.784330281189682</v>
+        <v>2.728604878279384</v>
       </c>
       <c r="C16">
-        <v>0.6241195768481305</v>
+        <v>0.6280762848648749</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06019277782622279</v>
+        <v>0.05880130400548378</v>
       </c>
       <c r="F16">
         <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.1740385139813512</v>
+        <v>0.1677973147765499</v>
       </c>
       <c r="H16">
-        <v>0.1631220732235619</v>
+        <v>0.1630701164973374</v>
       </c>
       <c r="I16">
-        <v>0.004001081822297969</v>
+        <v>0.004260914828877915</v>
       </c>
       <c r="J16">
-        <v>0.172764526898689</v>
+        <v>0.1877784032834455</v>
       </c>
       <c r="K16">
-        <v>0.1474718685550034</v>
+        <v>0.1408455992942121</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08822585094511215</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02987603454063947</v>
       </c>
       <c r="N16">
-        <v>0.08146886686861876</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.291284639246442</v>
+        <v>0.08276054208307215</v>
       </c>
       <c r="Q16">
-        <v>0.6809609581535199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.331511425524894</v>
+      </c>
+      <c r="S16">
+        <v>0.6405829467221622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.714004538481049</v>
+        <v>2.664061700057005</v>
       </c>
       <c r="C17">
-        <v>0.5915878813375741</v>
+        <v>0.597875209099584</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.057504246382587</v>
+        <v>0.05600462278126805</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.1824177933190043</v>
+        <v>0.1668735106592152</v>
       </c>
       <c r="H17">
-        <v>0.1250078731071511</v>
+        <v>0.1249814049829183</v>
       </c>
       <c r="I17">
-        <v>0.003721633584357953</v>
+        <v>0.004042401209330748</v>
       </c>
       <c r="J17">
-        <v>0.179067599402174</v>
+        <v>0.2042464074193262</v>
       </c>
       <c r="K17">
-        <v>0.1558660766281186</v>
+        <v>0.1488432585253676</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09158234508033214</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.03195985948225566</v>
       </c>
       <c r="N17">
-        <v>0.1033948321802995</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.239496368508242</v>
+        <v>0.1051865110517483</v>
       </c>
       <c r="Q17">
-        <v>0.7118245582788916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.273834032243428</v>
+      </c>
+      <c r="S17">
+        <v>0.6766490692665883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.73419133027511</v>
+        <v>2.680830228068771</v>
       </c>
       <c r="C18">
-        <v>0.5532204953998701</v>
+        <v>0.5620403596758479</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05715349308391859</v>
+        <v>0.05514718379621009</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2039759781881827</v>
+        <v>0.1825806301582062</v>
       </c>
       <c r="H18">
-        <v>0.07215236941927117</v>
+        <v>0.07213157402111392</v>
       </c>
       <c r="I18">
-        <v>0.003439053682093629</v>
+        <v>0.003727230491135103</v>
       </c>
       <c r="J18">
-        <v>0.1914112328291608</v>
+        <v>0.2203356329152939</v>
       </c>
       <c r="K18">
-        <v>0.1695286249992076</v>
+        <v>0.1607279330133515</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09637546571744515</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03591504464691475</v>
       </c>
       <c r="N18">
-        <v>0.1581138878199226</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.17030010089006</v>
+        <v>0.1606874113445045</v>
       </c>
       <c r="Q18">
-        <v>0.7833265371272518</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.204346917931531</v>
+      </c>
+      <c r="S18">
+        <v>0.7441585653871527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.819494073219005</v>
+        <v>2.756701147845547</v>
       </c>
       <c r="C19">
-        <v>0.5174731731730731</v>
+        <v>0.5291309596019289</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06506238362859662</v>
+        <v>0.06212305399452767</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.2343248147685131</v>
+        <v>0.2084323740466303</v>
       </c>
       <c r="H19">
-        <v>0.02722844349652576</v>
+        <v>0.02719799544031076</v>
       </c>
       <c r="I19">
-        <v>0.003688851633294021</v>
+        <v>0.003986863064516122</v>
       </c>
       <c r="J19">
-        <v>0.2074432269742488</v>
+        <v>0.2361926520402449</v>
       </c>
       <c r="K19">
-        <v>0.1871925725726715</v>
+        <v>0.1754919773790196</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1021339110346613</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04134481635709619</v>
       </c>
       <c r="N19">
-        <v>0.2508571001697533</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.099820450845343</v>
+        <v>0.2545420846694242</v>
       </c>
       <c r="Q19">
-        <v>0.881233478972959</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.136667428535958</v>
+      </c>
+      <c r="S19">
+        <v>0.8318047646043851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.097487202071136</v>
+        <v>3.008680299854348</v>
       </c>
       <c r="C20">
-        <v>0.4839572685846463</v>
+        <v>0.499633151479685</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09463893170755355</v>
+        <v>0.08969643440139485</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2910304809670592</v>
+        <v>0.2654113348843339</v>
       </c>
       <c r="H20">
-        <v>0.002412064063778807</v>
+        <v>0.002306099687324092</v>
       </c>
       <c r="I20">
-        <v>0.00456556016688392</v>
+        <v>0.004771975862050581</v>
       </c>
       <c r="J20">
-        <v>0.2346505017995639</v>
+        <v>0.2502617778925682</v>
       </c>
       <c r="K20">
-        <v>0.2166901700472437</v>
+        <v>0.1983858233862748</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1096788299202078</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05185723296245115</v>
       </c>
       <c r="N20">
-        <v>0.4449463820103432</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.017849020292758</v>
+        <v>0.4504738827508419</v>
       </c>
       <c r="Q20">
-        <v>1.058542453884684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.064662208977893</v>
+      </c>
+      <c r="S20">
+        <v>0.9797951758987011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.495885521854404</v>
+        <v>3.356654110630302</v>
       </c>
       <c r="C21">
-        <v>0.518211208201393</v>
+        <v>0.529687001417102</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1027494350180298</v>
+        <v>0.09766051405407694</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.318364986839299</v>
+        <v>0.346714147167333</v>
       </c>
       <c r="H21">
-        <v>0.003858974075131028</v>
+        <v>0.003545019776823199</v>
       </c>
       <c r="I21">
-        <v>0.00622970130884859</v>
+        <v>0.006144371150718975</v>
       </c>
       <c r="J21">
-        <v>0.2430315496072382</v>
+        <v>0.1923086234617628</v>
       </c>
       <c r="K21">
-        <v>0.2182353975909912</v>
+        <v>0.1917991759216875</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1035899279329957</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0552646875687568</v>
       </c>
       <c r="N21">
-        <v>0.5129084830026187</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.041902150610483</v>
+        <v>0.5169983902286646</v>
       </c>
       <c r="Q21">
-        <v>1.134339962642315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.117818945811734</v>
+      </c>
+      <c r="S21">
+        <v>0.9924094507777994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.752083661190738</v>
+        <v>3.577831716468552</v>
       </c>
       <c r="C22">
-        <v>0.5411458383159129</v>
+        <v>0.5489691066518958</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1063748715069934</v>
+        <v>0.1013849324976626</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.3353470026079179</v>
+        <v>0.4070082692992401</v>
       </c>
       <c r="H22">
-        <v>0.004988849124058059</v>
+        <v>0.004506366004260021</v>
       </c>
       <c r="I22">
-        <v>0.007186058692280284</v>
+        <v>0.006802736216342531</v>
       </c>
       <c r="J22">
-        <v>0.2481158740003906</v>
+        <v>0.1608099028683476</v>
       </c>
       <c r="K22">
-        <v>0.2188264973688057</v>
+        <v>0.186836082393274</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09960266329659184</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0574284698251617</v>
       </c>
       <c r="N22">
-        <v>0.5472216861121808</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.060284735675751</v>
+        <v>0.5501013062806095</v>
       </c>
       <c r="Q22">
-        <v>1.181176240833338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.156721152898058</v>
+      </c>
+      <c r="S22">
+        <v>0.9950552024028667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.619528359865853</v>
+        <v>3.467455176026419</v>
       </c>
       <c r="C23">
-        <v>0.5273836171534754</v>
+        <v>0.5383378644469587</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1046186985431135</v>
+        <v>0.09947219071181124</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.3274213507913544</v>
+        <v>0.3687131818724509</v>
       </c>
       <c r="H23">
-        <v>0.004377363147872293</v>
+        <v>0.003994270610743089</v>
       </c>
       <c r="I23">
-        <v>0.006390421068811492</v>
+        <v>0.006115148427427997</v>
       </c>
       <c r="J23">
-        <v>0.2459789291659717</v>
+        <v>0.1822834213207187</v>
       </c>
       <c r="K23">
-        <v>0.2193303852780062</v>
+        <v>0.1908103662554588</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1021346210440033</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05684095946125822</v>
       </c>
       <c r="N23">
-        <v>0.5286377874029426</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.048269798581345</v>
+        <v>0.5324112369230392</v>
       </c>
       <c r="Q23">
-        <v>1.159799550780292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.131495067940421</v>
+      </c>
+      <c r="S23">
+        <v>1.002372942417665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.109776017441106</v>
+        <v>3.020147445789064</v>
       </c>
       <c r="C24">
-        <v>0.4778665088342109</v>
+        <v>0.493589157263159</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09766511466531824</v>
+        <v>0.09255806166869718</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.296366363853771</v>
+        <v>0.2698605695975616</v>
       </c>
       <c r="H24">
-        <v>0.002377297116352817</v>
+        <v>0.00226865424209588</v>
       </c>
       <c r="I24">
-        <v>0.004136799415175751</v>
+        <v>0.004240507430255391</v>
       </c>
       <c r="J24">
-        <v>0.2374453915839183</v>
+        <v>0.2533615509525688</v>
       </c>
       <c r="K24">
-        <v>0.2204483201264971</v>
+        <v>0.2016516532542383</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1109417491841604</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05306034432013007</v>
       </c>
       <c r="N24">
-        <v>0.4588198192317776</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.007726471385652</v>
+        <v>0.4645076539030413</v>
       </c>
       <c r="Q24">
-        <v>1.075704942305094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.054256743586905</v>
+      </c>
+      <c r="S24">
+        <v>0.9957184632979761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.557889714818373</v>
+        <v>2.495930926878486</v>
       </c>
       <c r="C25">
-        <v>0.4245921997832767</v>
+        <v>0.4316745493557903</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0901293597914048</v>
+        <v>0.08602664776882385</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2645822809585354</v>
+        <v>0.2368828662913103</v>
       </c>
       <c r="H25">
-        <v>0.0008485044015080767</v>
+        <v>0.000862480690986267</v>
       </c>
       <c r="I25">
-        <v>0.002371824563027758</v>
+        <v>0.002658954476753017</v>
       </c>
       <c r="J25">
-        <v>0.2293186484697998</v>
+        <v>0.2543742857182636</v>
       </c>
       <c r="K25">
-        <v>0.2228386157851645</v>
+        <v>0.2073407446373032</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1189273835279021</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04777551888394882</v>
       </c>
       <c r="N25">
-        <v>0.3837099403618396</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9668163496836684</v>
+        <v>0.3887540520794488</v>
       </c>
       <c r="Q25">
-        <v>0.990860719868266</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.9960528825558441</v>
+      </c>
+      <c r="S25">
+        <v>0.93318326511762</v>
       </c>
     </row>
   </sheetData>
